--- a/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9906757089077037</v>
+      </c>
+      <c r="D3">
+        <v>1.007188783702113</v>
+      </c>
+      <c r="E3">
         <v>0.9973088039035626</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9967498127460401</v>
+      </c>
+      <c r="G3">
         <v>1.012847005372544</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.9965197751561228</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.9973088039035626</v>
-      </c>
-      <c r="G3">
-        <v>0.9906757089077037</v>
-      </c>
-      <c r="H3">
-        <v>1.007188783702112</v>
-      </c>
-      <c r="I3">
-        <v>0.9967498127460401</v>
       </c>
       <c r="J3">
         <v>1.012847005372544</v>
@@ -728,7 +680,7 @@
         <v>1.000214981631347</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9820018790682956</v>
+      </c>
+      <c r="D4">
+        <v>1.013878839255391</v>
+      </c>
+      <c r="E4">
         <v>0.9947952176763851</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9937263055473855</v>
+      </c>
+      <c r="G4">
         <v>1.024794949591065</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>0.9932864228184392</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9947952176763851</v>
-      </c>
-      <c r="G4">
-        <v>0.9820018790682956</v>
-      </c>
-      <c r="H4">
-        <v>1.013878839255391</v>
-      </c>
-      <c r="I4">
-        <v>0.9937263055473855</v>
       </c>
       <c r="J4">
         <v>1.024794949591065</v>
@@ -790,7 +742,7 @@
         <v>1.000413935659493</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.965611470445898</v>
+      </c>
+      <c r="D5">
+        <v>1.026598725266708</v>
+      </c>
+      <c r="E5">
         <v>0.9899442852227567</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9879693908366279</v>
+      </c>
+      <c r="G5">
         <v>1.047586651446227</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.9871566695739314</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.9899442852227567</v>
-      </c>
-      <c r="G5">
-        <v>0.965611470445898</v>
-      </c>
-      <c r="H5">
-        <v>1.026598725266708</v>
-      </c>
-      <c r="I5">
-        <v>0.9879693908366279</v>
       </c>
       <c r="J5">
         <v>1.047586651446227</v>
@@ -852,7 +804,7 @@
         <v>1.000811198798691</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9496177327473766</v>
+      </c>
+      <c r="D6">
+        <v>1.039012933988795</v>
+      </c>
+      <c r="E6">
         <v>0.9852064189222937</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.982350944123512</v>
+      </c>
+      <c r="G6">
         <v>1.069830209349196</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.9811758551661557</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>0.9852064189222937</v>
-      </c>
-      <c r="G6">
-        <v>0.9496177327473766</v>
-      </c>
-      <c r="H6">
-        <v>1.039012933988795</v>
-      </c>
-      <c r="I6">
-        <v>0.982350944123512</v>
       </c>
       <c r="J6">
         <v>1.069830209349196</v>
@@ -914,7 +866,7 @@
         <v>1.001199015716222</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997524917150111</v>
+        <v>0.9994677369930743</v>
       </c>
       <c r="D7">
-        <v>1.000887214519521</v>
+        <v>1.000473457694569</v>
       </c>
       <c r="E7">
-        <v>0.9997941637314498</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="F7">
-        <v>0.9997524917150111</v>
+        <v>0.999782014874552</v>
       </c>
       <c r="G7">
-        <v>0.9994677369930747</v>
+        <v>1.000887214519522</v>
       </c>
       <c r="H7">
-        <v>1.00047345769457</v>
+        <v>0.9997941637314497</v>
       </c>
       <c r="I7">
-        <v>0.999782014874552</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="J7">
-        <v>1.000887214519521</v>
+        <v>1.000887214519522</v>
       </c>
       <c r="K7">
-        <v>0.9997524917150111</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="L7">
-        <v>0.9997941637314498</v>
+        <v>0.9997941637314497</v>
       </c>
       <c r="M7">
         <v>1.000340689125486</v>
@@ -976,7 +928,7 @@
         <v>1.000026179921363</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994403811568345</v>
+        <v>0.9987440622251661</v>
       </c>
       <c r="D8">
+        <v>1.001101546149647</v>
+      </c>
+      <c r="E8">
+        <v>0.9994403811568343</v>
+      </c>
+      <c r="F8">
+        <v>0.9994934225973233</v>
+      </c>
+      <c r="G8">
         <v>1.002057179845206</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>0.9995152497371319</v>
       </c>
-      <c r="F8">
-        <v>0.9994403811568345</v>
-      </c>
-      <c r="G8">
-        <v>0.9987440622251662</v>
-      </c>
-      <c r="H8">
-        <v>1.001101546149647</v>
-      </c>
       <c r="I8">
-        <v>0.9994934225973233</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="J8">
         <v>1.002057179845206</v>
       </c>
       <c r="K8">
-        <v>0.9994403811568345</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="L8">
         <v>0.9995152497371319</v>
@@ -1038,7 +990,7 @@
         <v>1.000058640285218</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9982744018085828</v>
+      </c>
+      <c r="D9">
+        <v>1.001465777404149</v>
+      </c>
+      <c r="E9">
         <v>0.9993015293385646</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.9993286405526665</v>
+      </c>
+      <c r="G9">
         <v>1.002709296505295</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>0.9993397973720599</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.9993015293385646</v>
-      </c>
-      <c r="G9">
-        <v>0.9982744018085828</v>
-      </c>
-      <c r="H9">
-        <v>1.001465777404149</v>
-      </c>
-      <c r="I9">
-        <v>0.9993286405526665</v>
       </c>
       <c r="J9">
         <v>1.002709296505295</v>
@@ -1100,7 +1052,7 @@
         <v>1.000069907163553</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9962634873783237</v>
+      </c>
+      <c r="D10">
+        <v>1.003236024848432</v>
+      </c>
+      <c r="E10">
         <v>0.9983954358313974</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9985142701038119</v>
+      </c>
+      <c r="G10">
         <v>1.006018463015063</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>0.9985631728940386</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.9983954358313974</v>
-      </c>
-      <c r="G10">
-        <v>0.9962634873783234</v>
-      </c>
-      <c r="H10">
-        <v>1.003236024848432</v>
-      </c>
-      <c r="I10">
-        <v>0.9985142701038117</v>
       </c>
       <c r="J10">
         <v>1.006018463015063</v>
@@ -1162,7 +1114,7 @@
         <v>1.000165142345178</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.993892838504829</v>
+      </c>
+      <c r="D11">
+        <v>1.005146636794025</v>
+      </c>
+      <c r="E11">
         <v>0.9975927303388185</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9976441905318345</v>
+      </c>
+      <c r="G11">
         <v>1.009494645507266</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>0.997665366057455</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>0.9975927303388185</v>
-      </c>
-      <c r="G11">
-        <v>0.993892838504829</v>
-      </c>
-      <c r="H11">
-        <v>1.005146636794025</v>
-      </c>
-      <c r="I11">
-        <v>0.9976441905318345</v>
       </c>
       <c r="J11">
         <v>1.009494645507266</v>
@@ -1224,7 +1176,7 @@
         <v>1.000239401289038</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="D12">
+        <v>0.9641860394047039</v>
+      </c>
+      <c r="E12">
         <v>1.04932377377107</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1.017965533339757</v>
+      </c>
+      <c r="G12">
         <v>0.9167794763808607</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>1.005060901835656</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>1.04932377377107</v>
-      </c>
-      <c r="G12">
-        <v>1.005576267777883</v>
-      </c>
-      <c r="H12">
-        <v>0.9641860394047042</v>
-      </c>
-      <c r="I12">
-        <v>1.017965533339756</v>
       </c>
       <c r="J12">
         <v>0.9167794763808607</v>
@@ -1271,7 +1223,7 @@
         <v>0.9620088058737402</v>
       </c>
       <c r="P12">
-        <v>0.9903880506625287</v>
+        <v>0.9903880506625288</v>
       </c>
       <c r="Q12">
         <v>0.9903880506625288</v>
@@ -1286,7 +1238,7 @@
         <v>0.9931486654183216</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1246,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9897720585145821</v>
+        <v>1.026029837573964</v>
       </c>
       <c r="D13">
-        <v>0.9920795375638962</v>
+        <v>0.9916196386969702</v>
       </c>
       <c r="E13">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="F13">
+        <v>1.003141381619977</v>
+      </c>
+      <c r="G13">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="H13">
         <v>1.008643148041779</v>
       </c>
-      <c r="F13">
-        <v>0.9897720585145821</v>
-      </c>
-      <c r="G13">
-        <v>1.026029837573964</v>
-      </c>
-      <c r="H13">
-        <v>0.9916196386969702</v>
-      </c>
       <c r="I13">
-        <v>1.003141381619977</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="J13">
-        <v>0.9920795375638962</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="K13">
-        <v>0.9897720585145821</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="L13">
         <v>1.008643148041779</v>
       </c>
       <c r="M13">
-        <v>1.000361342802838</v>
+        <v>1.000361342802837</v>
       </c>
       <c r="N13">
-        <v>1.000361342802838</v>
+        <v>1.000361342802837</v>
       </c>
       <c r="O13">
         <v>0.997447441434215</v>
       </c>
       <c r="P13">
-        <v>0.996831581373419</v>
+        <v>0.9968315813734189</v>
       </c>
       <c r="Q13">
-        <v>0.996831581373419</v>
+        <v>0.9968315813734189</v>
       </c>
       <c r="R13">
-        <v>0.9950667006587097</v>
+        <v>0.9950667006587096</v>
       </c>
       <c r="S13">
-        <v>0.9950667006587097</v>
+        <v>0.9950667006587096</v>
       </c>
       <c r="T13">
         <v>1.001880933668528</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="D14">
+        <v>0.9187852692934646</v>
+      </c>
+      <c r="E14">
         <v>1.024003622592169</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1.036365664109581</v>
+      </c>
+      <c r="G14">
         <v>0.8585719803706373</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>1.041452924960361</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>1.024003622592169</v>
-      </c>
-      <c r="G14">
-        <v>1.112777036505602</v>
-      </c>
-      <c r="H14">
-        <v>0.9187852692934646</v>
-      </c>
-      <c r="I14">
-        <v>1.036365664109581</v>
       </c>
       <c r="J14">
         <v>0.8585719803706373</v>
@@ -1410,7 +1362,7 @@
         <v>0.9986594163053025</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.020170741794812</v>
+      </c>
+      <c r="D15">
+        <v>0.9785906152089123</v>
+      </c>
+      <c r="E15">
         <v>1.015334925193843</v>
       </c>
-      <c r="D15">
-        <v>0.9591919345468271</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>1.009863379150939</v>
+      </c>
+      <c r="G15">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="H15">
         <v>1.00761171154043</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>1.015334925193843</v>
       </c>
-      <c r="G15">
-        <v>1.020170741794812</v>
-      </c>
-      <c r="H15">
-        <v>0.9785906152089123</v>
-      </c>
-      <c r="I15">
-        <v>1.009863379150939</v>
-      </c>
       <c r="J15">
-        <v>0.9591919345468271</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="K15">
         <v>1.015334925193843</v>
@@ -1448,31 +1400,31 @@
         <v>1.00761171154043</v>
       </c>
       <c r="M15">
-        <v>0.9834018230436283</v>
+        <v>0.9834018230436282</v>
       </c>
       <c r="N15">
-        <v>0.9834018230436283</v>
+        <v>0.9834018230436282</v>
       </c>
       <c r="O15">
         <v>0.981798087098723</v>
       </c>
       <c r="P15">
-        <v>0.9940461904270333</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="Q15">
-        <v>0.9940461904270336</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="R15">
-        <v>0.999368374118736</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="S15">
-        <v>0.999368374118736</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="T15">
-        <v>0.9984605512392942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9984605512392939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999379112626189</v>
+        <v>0.8195309410071204</v>
       </c>
       <c r="D16">
-        <v>1.000085630505559</v>
+        <v>1.140252109431174</v>
       </c>
       <c r="E16">
-        <v>1.000001547117277</v>
+        <v>0.9461206265748646</v>
       </c>
       <c r="F16">
-        <v>0.9999379112626189</v>
+        <v>0.936550099305294</v>
       </c>
       <c r="G16">
-        <v>1.000018087500562</v>
+        <v>1.251158159435448</v>
       </c>
       <c r="H16">
-        <v>1.000031340923626</v>
+        <v>0.9326116139980668</v>
       </c>
       <c r="I16">
-        <v>0.9999829948436013</v>
+        <v>0.9461206265748646</v>
       </c>
       <c r="J16">
-        <v>1.000085630505559</v>
+        <v>1.251158159435448</v>
       </c>
       <c r="K16">
-        <v>0.9999379112626189</v>
+        <v>0.9461206265748646</v>
       </c>
       <c r="L16">
-        <v>1.000001547117277</v>
+        <v>0.9326116139980668</v>
       </c>
       <c r="M16">
-        <v>1.000043588811418</v>
+        <v>1.091884886716757</v>
       </c>
       <c r="N16">
-        <v>1.000043588811418</v>
+        <v>1.091884886716757</v>
       </c>
       <c r="O16">
-        <v>1.000039506182154</v>
+        <v>1.10800729428823</v>
       </c>
       <c r="P16">
-        <v>1.000008362961818</v>
+        <v>1.043296800002793</v>
       </c>
       <c r="Q16">
-        <v>1.000008362961818</v>
+        <v>1.043296800002793</v>
       </c>
       <c r="R16">
-        <v>0.9999907500370185</v>
+        <v>1.019002756645811</v>
       </c>
       <c r="S16">
-        <v>0.9999907500370185</v>
+        <v>1.019002756645811</v>
       </c>
       <c r="T16">
-        <v>1.000009585358874</v>
+        <v>1.004370591625328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9997061612873858</v>
+        <v>0.855559283164994</v>
       </c>
       <c r="D17">
-        <v>1.001161599564797</v>
+        <v>1.114785102228685</v>
       </c>
       <c r="E17">
-        <v>0.999713793136797</v>
+        <v>0.9530495347344848</v>
       </c>
       <c r="F17">
-        <v>0.9997061612873858</v>
+        <v>0.9479279806077902</v>
       </c>
       <c r="G17">
-        <v>0.999249993744873</v>
+        <v>1.207098857589741</v>
       </c>
       <c r="H17">
-        <v>1.00063053252818</v>
+        <v>0.9458203470037488</v>
       </c>
       <c r="I17">
-        <v>0.9997115686192783</v>
+        <v>0.9530495347344848</v>
       </c>
       <c r="J17">
-        <v>1.001161599564797</v>
+        <v>1.207098857589741</v>
       </c>
       <c r="K17">
-        <v>0.9997061612873858</v>
+        <v>0.9530495347344848</v>
       </c>
       <c r="L17">
-        <v>0.999713793136797</v>
+        <v>0.9458203470037488</v>
       </c>
       <c r="M17">
-        <v>1.000437696350797</v>
+        <v>1.076459602296745</v>
       </c>
       <c r="N17">
-        <v>1.000437696350797</v>
+        <v>1.076459602296745</v>
       </c>
       <c r="O17">
-        <v>1.000501975076592</v>
+        <v>1.089234768940725</v>
       </c>
       <c r="P17">
-        <v>1.00019385132966</v>
+        <v>1.035322913109325</v>
       </c>
       <c r="Q17">
-        <v>1.00019385132966</v>
+        <v>1.035322913109325</v>
       </c>
       <c r="R17">
-        <v>1.000071928819091</v>
+        <v>1.014754568515615</v>
       </c>
       <c r="S17">
-        <v>1.000071928819091</v>
+        <v>1.014754568515615</v>
       </c>
       <c r="T17">
-        <v>1.000028941480219</v>
+        <v>1.004040184221574</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9991111304489451</v>
+        <v>0.9280009052826524</v>
       </c>
       <c r="D18">
-        <v>1.003985143631104</v>
+        <v>1.063411355185691</v>
       </c>
       <c r="E18">
-        <v>0.9989487574123798</v>
+        <v>0.9672335123236465</v>
       </c>
       <c r="F18">
-        <v>0.9991111304489451</v>
+        <v>0.9708909137842848</v>
       </c>
       <c r="G18">
-        <v>0.9971900420712164</v>
+        <v>1.11810503794266</v>
       </c>
       <c r="H18">
-        <v>1.002215812836935</v>
+        <v>0.9723960163036502</v>
       </c>
       <c r="I18">
-        <v>0.998996097364347</v>
+        <v>0.9672335123236465</v>
       </c>
       <c r="J18">
-        <v>1.003985143631104</v>
+        <v>1.11810503794266</v>
       </c>
       <c r="K18">
-        <v>0.9991111304489451</v>
+        <v>0.9672335123236465</v>
       </c>
       <c r="L18">
-        <v>0.9989487574123798</v>
+        <v>0.9723960163036502</v>
       </c>
       <c r="M18">
-        <v>1.001466950521742</v>
+        <v>1.045250527123155</v>
       </c>
       <c r="N18">
-        <v>1.001466950521742</v>
+        <v>1.045250527123155</v>
       </c>
       <c r="O18">
-        <v>1.001716571293473</v>
+        <v>1.051304136477334</v>
       </c>
       <c r="P18">
-        <v>1.000681677164143</v>
+        <v>1.019244855523319</v>
       </c>
       <c r="Q18">
-        <v>1.000681677164143</v>
+        <v>1.019244855523319</v>
       </c>
       <c r="R18">
-        <v>1.000289040485344</v>
+        <v>1.006242019723401</v>
       </c>
       <c r="S18">
-        <v>1.000289040485344</v>
+        <v>1.006242019723401</v>
       </c>
       <c r="T18">
-        <v>1.000074497294155</v>
+        <v>1.003339623470431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9234564864546959</v>
+      </c>
+      <c r="D19">
+        <v>1.069161356398034</v>
+      </c>
+      <c r="E19">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="F19">
+        <v>0.96811247261483</v>
+      </c>
+      <c r="G19">
+        <v>1.130118461453029</v>
+      </c>
+      <c r="H19">
+        <v>0.9703185076453285</v>
+      </c>
+      <c r="I19">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="J19">
+        <v>1.130118461453029</v>
+      </c>
+      <c r="K19">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="L19">
+        <v>0.9703185076453285</v>
+      </c>
+      <c r="M19">
+        <v>1.050218484549179</v>
+      </c>
+      <c r="N19">
+        <v>1.050218484549179</v>
+      </c>
+      <c r="O19">
+        <v>1.056532775165464</v>
+      </c>
+      <c r="P19">
+        <v>1.021062921659347</v>
+      </c>
+      <c r="Q19">
+        <v>1.021062921659347</v>
+      </c>
+      <c r="R19">
+        <v>1.00648514021443</v>
+      </c>
+      <c r="S19">
+        <v>1.00648514021443</v>
+      </c>
+      <c r="T19">
+        <v>1.0039865134076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000018087500562</v>
+      </c>
+      <c r="D20">
+        <v>1.000031340923626</v>
+      </c>
+      <c r="E20">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="F20">
+        <v>0.9999829948436013</v>
+      </c>
+      <c r="G20">
+        <v>1.000085630505559</v>
+      </c>
+      <c r="H20">
+        <v>1.000001547117278</v>
+      </c>
+      <c r="I20">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="J20">
+        <v>1.000085630505559</v>
+      </c>
+      <c r="K20">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="L20">
+        <v>1.000001547117278</v>
+      </c>
+      <c r="M20">
+        <v>1.000043588811419</v>
+      </c>
+      <c r="N20">
+        <v>1.000043588811419</v>
+      </c>
+      <c r="O20">
+        <v>1.000039506182154</v>
+      </c>
+      <c r="P20">
+        <v>1.000008362961819</v>
+      </c>
+      <c r="Q20">
+        <v>1.000008362961819</v>
+      </c>
+      <c r="R20">
+        <v>0.9999907500370186</v>
+      </c>
+      <c r="S20">
+        <v>0.9999907500370186</v>
+      </c>
+      <c r="T20">
+        <v>1.000009585358874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.999249993744873</v>
+      </c>
+      <c r="D21">
+        <v>1.00063053252818</v>
+      </c>
+      <c r="E21">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="F21">
+        <v>0.9997115686192783</v>
+      </c>
+      <c r="G21">
+        <v>1.001161599564797</v>
+      </c>
+      <c r="H21">
+        <v>0.9997137931367969</v>
+      </c>
+      <c r="I21">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="J21">
+        <v>1.001161599564797</v>
+      </c>
+      <c r="K21">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="L21">
+        <v>0.9997137931367969</v>
+      </c>
+      <c r="M21">
+        <v>1.000437696350797</v>
+      </c>
+      <c r="N21">
+        <v>1.000437696350797</v>
+      </c>
+      <c r="O21">
+        <v>1.000501975076592</v>
+      </c>
+      <c r="P21">
+        <v>1.00019385132966</v>
+      </c>
+      <c r="Q21">
+        <v>1.00019385132966</v>
+      </c>
+      <c r="R21">
+        <v>1.000071928819091</v>
+      </c>
+      <c r="S21">
+        <v>1.000071928819091</v>
+      </c>
+      <c r="T21">
+        <v>1.000028941480219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9971900420712164</v>
+      </c>
+      <c r="D22">
+        <v>1.002215812836935</v>
+      </c>
+      <c r="E22">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="F22">
+        <v>0.998996097364347</v>
+      </c>
+      <c r="G22">
+        <v>1.003985143631104</v>
+      </c>
+      <c r="H22">
+        <v>0.9989487574123793</v>
+      </c>
+      <c r="I22">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="J22">
+        <v>1.003985143631104</v>
+      </c>
+      <c r="K22">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="L22">
+        <v>0.9989487574123793</v>
+      </c>
+      <c r="M22">
+        <v>1.001466950521742</v>
+      </c>
+      <c r="N22">
+        <v>1.001466950521742</v>
+      </c>
+      <c r="O22">
+        <v>1.001716571293473</v>
+      </c>
+      <c r="P22">
+        <v>1.000681677164143</v>
+      </c>
+      <c r="Q22">
+        <v>1.000681677164143</v>
+      </c>
+      <c r="R22">
+        <v>1.000289040485344</v>
+      </c>
+      <c r="S22">
+        <v>1.000289040485344</v>
+      </c>
+      <c r="T22">
+        <v>1.000074497294154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9932450448495725</v>
+      </c>
+      <c r="D23">
+        <v>1.005184906510019</v>
+      </c>
+      <c r="E23">
         <v>0.9980810720599085</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9976580228458722</v>
+      </c>
+      <c r="G23">
         <v>1.009245377003971</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.9974839281339283</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>0.9980810720599085</v>
       </c>
-      <c r="G19">
-        <v>0.9932450448495725</v>
-      </c>
-      <c r="H19">
-        <v>1.005184906510019</v>
-      </c>
-      <c r="I19">
-        <v>0.9976580228458722</v>
-      </c>
-      <c r="J19">
+      <c r="J23">
         <v>1.009245377003971</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9980810720599085</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9974839281339283</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.003364652568949</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.003364652568949</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.003971403882639</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001603459065936</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001603459065936</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000722862314429</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000722862314429</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000149725233879</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9906757089077037</v>
+        <v>0.9161138507564835</v>
       </c>
       <c r="D3">
-        <v>1.007188783702113</v>
+        <v>1.074154028587896</v>
       </c>
       <c r="E3">
-        <v>0.9973088039035626</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="F3">
-        <v>0.9967498127460401</v>
+        <v>0.9659332789913531</v>
       </c>
       <c r="G3">
-        <v>1.012847005372544</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="H3">
-        <v>0.9965197751561228</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="I3">
-        <v>0.9973088039035626</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="J3">
-        <v>1.012847005372544</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="K3">
-        <v>0.9973088039035626</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="L3">
-        <v>0.9965197751561228</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="M3">
-        <v>1.004683390264334</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="N3">
-        <v>1.004683390264334</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="O3">
-        <v>1.00551852141026</v>
+        <v>1.060091546462537</v>
       </c>
       <c r="P3">
-        <v>1.002225194810743</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="Q3">
-        <v>1.002225194810743</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="R3">
-        <v>1.000996097083948</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="S3">
-        <v>1.000996097083948</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="T3">
-        <v>1.000214981631347</v>
+        <v>1.003964590557156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9820018790682956</v>
+        <v>0.9225434054230329</v>
       </c>
       <c r="D4">
-        <v>1.013878839255391</v>
+        <v>1.068460749692512</v>
       </c>
       <c r="E4">
-        <v>0.9947952176763851</v>
+        <v>0.9644080229705574</v>
       </c>
       <c r="F4">
-        <v>0.9937263055473855</v>
+        <v>0.9685551350913207</v>
       </c>
       <c r="G4">
-        <v>1.024794949591065</v>
+        <v>1.127680603878112</v>
       </c>
       <c r="H4">
-        <v>0.9932864228184392</v>
+        <v>0.9702617645816264</v>
       </c>
       <c r="I4">
-        <v>0.9947952176763851</v>
+        <v>0.9644080229705574</v>
       </c>
       <c r="J4">
-        <v>1.024794949591065</v>
+        <v>1.127680603878112</v>
       </c>
       <c r="K4">
-        <v>0.9947952176763851</v>
+        <v>0.9644080229705574</v>
       </c>
       <c r="L4">
-        <v>0.9932864228184392</v>
+        <v>0.9702617645816264</v>
       </c>
       <c r="M4">
-        <v>1.009040686204752</v>
+        <v>1.048971184229869</v>
       </c>
       <c r="N4">
-        <v>1.009040686204752</v>
+        <v>1.048971184229869</v>
       </c>
       <c r="O4">
-        <v>1.010653403888298</v>
+        <v>1.05546770605075</v>
       </c>
       <c r="P4">
-        <v>1.004292196695296</v>
+        <v>1.020783463810099</v>
       </c>
       <c r="Q4">
-        <v>1.004292196695296</v>
+        <v>1.020783463810098</v>
       </c>
       <c r="R4">
-        <v>1.001917951940569</v>
+        <v>1.006689603600213</v>
       </c>
       <c r="S4">
-        <v>1.001917951940569</v>
+        <v>1.006689603600213</v>
       </c>
       <c r="T4">
-        <v>1.000413935659493</v>
+        <v>1.003651613606193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.965611470445898</v>
+        <v>0.9039479605390827</v>
       </c>
       <c r="D5">
-        <v>1.026598725266708</v>
+        <v>1.084914524986524</v>
       </c>
       <c r="E5">
-        <v>0.9899442852227567</v>
+        <v>0.9559179263881402</v>
       </c>
       <c r="F5">
-        <v>0.9879693908366279</v>
+        <v>0.9609782615902952</v>
       </c>
       <c r="G5">
-        <v>1.047586651446227</v>
+        <v>1.158507271671161</v>
       </c>
       <c r="H5">
-        <v>0.9871566695739314</v>
+        <v>0.9630607000269558</v>
       </c>
       <c r="I5">
-        <v>0.9899442852227567</v>
+        <v>0.9559179263881402</v>
       </c>
       <c r="J5">
-        <v>1.047586651446227</v>
+        <v>1.158507271671161</v>
       </c>
       <c r="K5">
-        <v>0.9899442852227567</v>
+        <v>0.9559179263881402</v>
       </c>
       <c r="L5">
-        <v>0.9871566695739314</v>
+        <v>0.9630607000269558</v>
       </c>
       <c r="M5">
-        <v>1.017371660510079</v>
+        <v>1.060783985849058</v>
       </c>
       <c r="N5">
-        <v>1.017371660510079</v>
+        <v>1.060783985849058</v>
       </c>
       <c r="O5">
-        <v>1.020447348762289</v>
+        <v>1.06882749889488</v>
       </c>
       <c r="P5">
-        <v>1.008229202080972</v>
+        <v>1.025828632695419</v>
       </c>
       <c r="Q5">
-        <v>1.008229202080972</v>
+        <v>1.025828632695419</v>
       </c>
       <c r="R5">
-        <v>1.003657972866418</v>
+        <v>1.008350956118599</v>
       </c>
       <c r="S5">
-        <v>1.003657972866418</v>
+        <v>1.008350956118599</v>
       </c>
       <c r="T5">
-        <v>1.000811198798691</v>
+        <v>1.004554440867026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9496177327473766</v>
+        <v>0.8926416656250011</v>
       </c>
       <c r="D6">
-        <v>1.039012933988795</v>
+        <v>1.094900116534091</v>
       </c>
       <c r="E6">
-        <v>0.9852064189222937</v>
+        <v>0.9507852554545463</v>
       </c>
       <c r="F6">
-        <v>0.982350944123512</v>
+        <v>0.9563805139204536</v>
       </c>
       <c r="G6">
-        <v>1.069830209349196</v>
+        <v>1.177208128011364</v>
       </c>
       <c r="H6">
-        <v>0.9811758551661557</v>
+        <v>0.9586830923863642</v>
       </c>
       <c r="I6">
-        <v>0.9852064189222937</v>
+        <v>0.9507852554545463</v>
       </c>
       <c r="J6">
-        <v>1.069830209349196</v>
+        <v>1.177208128011364</v>
       </c>
       <c r="K6">
-        <v>0.9852064189222937</v>
+        <v>0.9507852554545463</v>
       </c>
       <c r="L6">
-        <v>0.9811758551661557</v>
+        <v>0.9586830923863642</v>
       </c>
       <c r="M6">
-        <v>1.025503032257676</v>
+        <v>1.067945610198864</v>
       </c>
       <c r="N6">
-        <v>1.025503032257676</v>
+        <v>1.067945610198864</v>
       </c>
       <c r="O6">
-        <v>1.030006332834716</v>
+        <v>1.07693044564394</v>
       </c>
       <c r="P6">
-        <v>1.012070827812549</v>
+        <v>1.028892158617425</v>
       </c>
       <c r="Q6">
-        <v>1.012070827812549</v>
+        <v>1.028892158617425</v>
       </c>
       <c r="R6">
-        <v>1.005354725589985</v>
+        <v>1.009365432826705</v>
       </c>
       <c r="S6">
-        <v>1.005354725589985</v>
+        <v>1.009365432826705</v>
       </c>
       <c r="T6">
-        <v>1.001199015716222</v>
+        <v>1.00509979532197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994677369930743</v>
+        <v>1.106398084933528</v>
       </c>
       <c r="D7">
-        <v>1.000473457694569</v>
+        <v>0.9323176778363211</v>
       </c>
       <c r="E7">
-        <v>0.9997524917150109</v>
+        <v>1.01002990600074</v>
       </c>
       <c r="F7">
-        <v>0.999782014874552</v>
+        <v>1.029556475884277</v>
       </c>
       <c r="G7">
-        <v>1.000887214519522</v>
+        <v>0.889457472000676</v>
       </c>
       <c r="H7">
-        <v>0.9997941637314497</v>
+        <v>1.03759207963228</v>
       </c>
       <c r="I7">
-        <v>0.9997524917150109</v>
+        <v>1.01002990600074</v>
       </c>
       <c r="J7">
-        <v>1.000887214519522</v>
+        <v>0.889457472000676</v>
       </c>
       <c r="K7">
-        <v>0.9997524917150109</v>
+        <v>1.01002990600074</v>
       </c>
       <c r="L7">
-        <v>0.9997941637314497</v>
+        <v>1.03759207963228</v>
       </c>
       <c r="M7">
-        <v>1.000340689125486</v>
+        <v>0.963524775816478</v>
       </c>
       <c r="N7">
-        <v>1.000340689125486</v>
+        <v>0.963524775816478</v>
       </c>
       <c r="O7">
-        <v>1.00038494531518</v>
+        <v>0.9531224098230924</v>
       </c>
       <c r="P7">
-        <v>1.000144623321994</v>
+        <v>0.9790264858778986</v>
       </c>
       <c r="Q7">
-        <v>1.000144623321994</v>
+        <v>0.9790264858778986</v>
       </c>
       <c r="R7">
-        <v>1.000046590420248</v>
+        <v>0.9867773409086091</v>
       </c>
       <c r="S7">
-        <v>1.000046590420248</v>
+        <v>0.9867773409086091</v>
       </c>
       <c r="T7">
-        <v>1.000026179921363</v>
+        <v>1.000891949381304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9987440622251661</v>
+        <v>1.104252146326307</v>
       </c>
       <c r="D8">
-        <v>1.001101546149647</v>
+        <v>0.9340076655515488</v>
       </c>
       <c r="E8">
-        <v>0.9994403811568343</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="F8">
-        <v>0.9994934225973233</v>
+        <v>1.028789320390842</v>
       </c>
       <c r="G8">
-        <v>1.002057179845206</v>
+        <v>0.8925068903756429</v>
       </c>
       <c r="H8">
-        <v>0.9995152497371319</v>
+        <v>1.03678427652438</v>
       </c>
       <c r="I8">
-        <v>0.9994403811568343</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="J8">
-        <v>1.002057179845206</v>
+        <v>0.8925068903756429</v>
       </c>
       <c r="K8">
-        <v>0.9994403811568343</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="L8">
-        <v>0.9995152497371319</v>
+        <v>1.03678427652438</v>
       </c>
       <c r="M8">
-        <v>1.000786214791169</v>
+        <v>0.9646455834500116</v>
       </c>
       <c r="N8">
-        <v>1.000786214791169</v>
+        <v>0.9646455834500116</v>
       </c>
       <c r="O8">
-        <v>1.000891325243995</v>
+        <v>0.954432944150524</v>
       </c>
       <c r="P8">
-        <v>1.000337603579724</v>
+        <v>0.9795508971504843</v>
       </c>
       <c r="Q8">
-        <v>1.000337603579724</v>
+        <v>0.9795508971504843</v>
       </c>
       <c r="R8">
-        <v>1.000113297974002</v>
+        <v>0.9870035540007205</v>
       </c>
       <c r="S8">
-        <v>1.000113297974002</v>
+        <v>0.9870035540007205</v>
       </c>
       <c r="T8">
-        <v>1.000058640285218</v>
+        <v>1.000950303953358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9982744018085828</v>
+        <v>1.102364362838258</v>
       </c>
       <c r="D9">
-        <v>1.001465777404149</v>
+        <v>0.9356331334182397</v>
       </c>
       <c r="E9">
-        <v>0.9993015293385646</v>
+        <v>1.008566076416404</v>
       </c>
       <c r="F9">
-        <v>0.9993286405526665</v>
+        <v>1.028043295586382</v>
       </c>
       <c r="G9">
-        <v>1.002709296505295</v>
+        <v>0.8955263397344698</v>
       </c>
       <c r="H9">
-        <v>0.9993397973720599</v>
+        <v>1.036058590652114</v>
       </c>
       <c r="I9">
-        <v>0.9993015293385646</v>
+        <v>1.008566076416404</v>
       </c>
       <c r="J9">
-        <v>1.002709296505295</v>
+        <v>0.8955263397344698</v>
       </c>
       <c r="K9">
-        <v>0.9993015293385646</v>
+        <v>1.008566076416404</v>
       </c>
       <c r="L9">
-        <v>0.9993397973720599</v>
+        <v>1.036058590652114</v>
       </c>
       <c r="M9">
-        <v>1.001024546938678</v>
+        <v>0.9657924651932919</v>
       </c>
       <c r="N9">
-        <v>1.001024546938678</v>
+        <v>0.9657924651932919</v>
       </c>
       <c r="O9">
-        <v>1.001171623760501</v>
+        <v>0.9557393546016079</v>
       </c>
       <c r="P9">
-        <v>1.00045020773864</v>
+        <v>0.9800503356009959</v>
       </c>
       <c r="Q9">
-        <v>1.00045020773864</v>
+        <v>0.9800503356009959</v>
       </c>
       <c r="R9">
-        <v>1.000163038138621</v>
+        <v>0.9871792708048479</v>
       </c>
       <c r="S9">
-        <v>1.000163038138621</v>
+        <v>0.9871792708048479</v>
       </c>
       <c r="T9">
-        <v>1.000069907163553</v>
+        <v>1.001031966440978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9962634873783237</v>
+        <v>1.098952878689453</v>
       </c>
       <c r="D10">
-        <v>1.003236024848432</v>
+        <v>0.9378127496844912</v>
       </c>
       <c r="E10">
-        <v>0.9983954358313974</v>
+        <v>1.008282971755888</v>
       </c>
       <c r="F10">
-        <v>0.9985142701038119</v>
+        <v>1.027078810002802</v>
       </c>
       <c r="G10">
-        <v>1.006018463015063</v>
+        <v>0.8991776261378435</v>
       </c>
       <c r="H10">
-        <v>0.9985631728940386</v>
+        <v>1.034813701680707</v>
       </c>
       <c r="I10">
-        <v>0.9983954358313974</v>
+        <v>1.008282971755888</v>
       </c>
       <c r="J10">
-        <v>1.006018463015063</v>
+        <v>0.8991776261378435</v>
       </c>
       <c r="K10">
-        <v>0.9983954358313974</v>
+        <v>1.008282971755888</v>
       </c>
       <c r="L10">
-        <v>0.9985631728940386</v>
+        <v>1.034813701680707</v>
       </c>
       <c r="M10">
-        <v>1.002290817954551</v>
+        <v>0.9669956639092754</v>
       </c>
       <c r="N10">
-        <v>1.002290817954551</v>
+        <v>0.9669956639092754</v>
       </c>
       <c r="O10">
-        <v>1.002605886919178</v>
+        <v>0.9572680258343474</v>
       </c>
       <c r="P10">
-        <v>1.000992357246833</v>
+        <v>0.9807580998581463</v>
       </c>
       <c r="Q10">
-        <v>1.000992357246833</v>
+        <v>0.9807580998581463</v>
       </c>
       <c r="R10">
-        <v>1.000343126892974</v>
+        <v>0.9876393178325817</v>
       </c>
       <c r="S10">
-        <v>1.000343126892974</v>
+        <v>0.9876393178325817</v>
       </c>
       <c r="T10">
-        <v>1.000165142345178</v>
+        <v>1.001019789658531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.993892838504829</v>
+        <v>0.9903724921073769</v>
       </c>
       <c r="D11">
-        <v>1.005146636794025</v>
+        <v>1.00742756503678</v>
       </c>
       <c r="E11">
-        <v>0.9975927303388185</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="F11">
-        <v>0.9976441905318345</v>
+        <v>0.9966434719997015</v>
       </c>
       <c r="G11">
-        <v>1.009494645507266</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="H11">
-        <v>0.997665366057455</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="I11">
-        <v>0.9975927303388185</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="J11">
-        <v>1.009494645507266</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="K11">
-        <v>0.9975927303388185</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="L11">
-        <v>0.997665366057455</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="M11">
-        <v>1.003580005782361</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="N11">
-        <v>1.003580005782361</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="O11">
-        <v>1.004102216119582</v>
+        <v>1.00570108866808</v>
       </c>
       <c r="P11">
-        <v>1.00158424730118</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="Q11">
-        <v>1.00158424730118</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="R11">
-        <v>1.00058636806059</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="S11">
-        <v>1.00058636806059</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="T11">
-        <v>1.000239401289038</v>
+        <v>1.000220759948956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005576267777883</v>
+        <v>0.9960213586577982</v>
       </c>
       <c r="D12">
-        <v>0.9641860394047039</v>
+        <v>1.003127765245863</v>
       </c>
       <c r="E12">
-        <v>1.04932377377107</v>
+        <v>0.998766583540736</v>
       </c>
       <c r="F12">
-        <v>1.017965533339757</v>
+        <v>0.9985810621632272</v>
       </c>
       <c r="G12">
-        <v>0.9167794763808607</v>
+        <v>1.005636363020095</v>
       </c>
       <c r="H12">
-        <v>1.005060901835656</v>
+        <v>0.9985047152610274</v>
       </c>
       <c r="I12">
-        <v>1.04932377377107</v>
+        <v>0.998766583540736</v>
       </c>
       <c r="J12">
-        <v>0.9167794763808607</v>
+        <v>1.005636363020095</v>
       </c>
       <c r="K12">
-        <v>1.04932377377107</v>
+        <v>0.998766583540736</v>
       </c>
       <c r="L12">
-        <v>1.005060901835656</v>
+        <v>0.9985047152610274</v>
       </c>
       <c r="M12">
-        <v>0.9609201891082582</v>
+        <v>1.002070539140561</v>
       </c>
       <c r="N12">
-        <v>0.9609201891082582</v>
+        <v>1.002070539140561</v>
       </c>
       <c r="O12">
-        <v>0.9620088058737402</v>
+        <v>1.002422947842329</v>
       </c>
       <c r="P12">
-        <v>0.9903880506625288</v>
+        <v>1.000969220607286</v>
       </c>
       <c r="Q12">
-        <v>0.9903880506625288</v>
+        <v>1.000969220607286</v>
       </c>
       <c r="R12">
-        <v>1.005121981439664</v>
+        <v>1.000418561340648</v>
       </c>
       <c r="S12">
-        <v>1.005121981439664</v>
+        <v>1.000418561340648</v>
       </c>
       <c r="T12">
-        <v>0.9931486654183216</v>
+        <v>1.000106307981458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.026029837573964</v>
+        <v>0.9870618974759202</v>
       </c>
       <c r="D13">
-        <v>0.9916196386969702</v>
+        <v>1.00995878782812</v>
       </c>
       <c r="E13">
-        <v>0.9897720585145819</v>
+        <v>0.9963239557760288</v>
       </c>
       <c r="F13">
-        <v>1.003141381619977</v>
+        <v>0.9954907108734812</v>
       </c>
       <c r="G13">
-        <v>0.9920795375638961</v>
+        <v>1.017841094284305</v>
       </c>
       <c r="H13">
-        <v>1.008643148041779</v>
+        <v>0.9951478068601063</v>
       </c>
       <c r="I13">
-        <v>0.9897720585145819</v>
+        <v>0.9963239557760288</v>
       </c>
       <c r="J13">
-        <v>0.9920795375638961</v>
+        <v>1.017841094284305</v>
       </c>
       <c r="K13">
-        <v>0.9897720585145819</v>
+        <v>0.9963239557760288</v>
       </c>
       <c r="L13">
-        <v>1.008643148041779</v>
+        <v>0.9951478068601063</v>
       </c>
       <c r="M13">
-        <v>1.000361342802837</v>
+        <v>1.006494450572205</v>
       </c>
       <c r="N13">
-        <v>1.000361342802837</v>
+        <v>1.006494450572205</v>
       </c>
       <c r="O13">
-        <v>0.997447441434215</v>
+        <v>1.00764922965751</v>
       </c>
       <c r="P13">
-        <v>0.9968315813734189</v>
+        <v>1.003104285640146</v>
       </c>
       <c r="Q13">
-        <v>0.9968315813734189</v>
+        <v>1.003104285640147</v>
       </c>
       <c r="R13">
-        <v>0.9950667006587096</v>
+        <v>1.001409203174117</v>
       </c>
       <c r="S13">
-        <v>0.9950667006587096</v>
+        <v>1.001409203174117</v>
       </c>
       <c r="T13">
-        <v>1.001880933668528</v>
+        <v>1.000304042182993</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.112777036505603</v>
+        <v>0.9741923021297186</v>
       </c>
       <c r="D14">
-        <v>0.9187852692934646</v>
+        <v>1.020007235536382</v>
       </c>
       <c r="E14">
-        <v>1.024003622592169</v>
+        <v>0.9923809070944474</v>
       </c>
       <c r="F14">
-        <v>1.036365664109581</v>
+        <v>0.9909489574454065</v>
       </c>
       <c r="G14">
-        <v>0.8585719803706373</v>
+        <v>1.035816214277002</v>
       </c>
       <c r="H14">
-        <v>1.041452924960361</v>
+        <v>0.9903596825915166</v>
       </c>
       <c r="I14">
-        <v>1.024003622592169</v>
+        <v>0.9923809070944474</v>
       </c>
       <c r="J14">
-        <v>0.8585719803706373</v>
+        <v>1.035816214277002</v>
       </c>
       <c r="K14">
-        <v>1.024003622592169</v>
+        <v>0.9923809070944474</v>
       </c>
       <c r="L14">
-        <v>1.041452924960361</v>
+        <v>0.9903596825915166</v>
       </c>
       <c r="M14">
-        <v>0.9500124526654989</v>
+        <v>1.013087948434259</v>
       </c>
       <c r="N14">
-        <v>0.9500124526654989</v>
+        <v>1.013087948434259</v>
       </c>
       <c r="O14">
-        <v>0.9396033915414875</v>
+        <v>1.0153943774683</v>
       </c>
       <c r="P14">
-        <v>0.974676175974389</v>
+        <v>1.006185601320989</v>
       </c>
       <c r="Q14">
-        <v>0.974676175974389</v>
+        <v>1.006185601320989</v>
       </c>
       <c r="R14">
-        <v>0.9870080376288342</v>
+        <v>1.002734427764353</v>
       </c>
       <c r="S14">
-        <v>0.9870080376288342</v>
+        <v>1.002734427764353</v>
       </c>
       <c r="T14">
-        <v>0.9986594163053025</v>
+        <v>1.000617549845746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.020170741794812</v>
+        <v>0.9906757089077037</v>
       </c>
       <c r="D15">
-        <v>0.9785906152089123</v>
+        <v>1.007188783702113</v>
       </c>
       <c r="E15">
-        <v>1.015334925193843</v>
+        <v>0.9973088039035626</v>
       </c>
       <c r="F15">
-        <v>1.009863379150939</v>
+        <v>0.9967498127460401</v>
       </c>
       <c r="G15">
-        <v>0.9591919345468267</v>
+        <v>1.012847005372544</v>
       </c>
       <c r="H15">
-        <v>1.00761171154043</v>
+        <v>0.9965197751561228</v>
       </c>
       <c r="I15">
-        <v>1.015334925193843</v>
+        <v>0.9973088039035626</v>
       </c>
       <c r="J15">
-        <v>0.9591919345468267</v>
+        <v>1.012847005372544</v>
       </c>
       <c r="K15">
-        <v>1.015334925193843</v>
+        <v>0.9973088039035626</v>
       </c>
       <c r="L15">
-        <v>1.00761171154043</v>
+        <v>0.9965197751561228</v>
       </c>
       <c r="M15">
-        <v>0.9834018230436282</v>
+        <v>1.004683390264334</v>
       </c>
       <c r="N15">
-        <v>0.9834018230436282</v>
+        <v>1.004683390264334</v>
       </c>
       <c r="O15">
-        <v>0.981798087098723</v>
+        <v>1.00551852141026</v>
       </c>
       <c r="P15">
-        <v>0.9940461904270332</v>
+        <v>1.002225194810743</v>
       </c>
       <c r="Q15">
-        <v>0.9940461904270332</v>
+        <v>1.002225194810743</v>
       </c>
       <c r="R15">
-        <v>0.9993683741187358</v>
+        <v>1.000996097083948</v>
       </c>
       <c r="S15">
-        <v>0.9993683741187358</v>
+        <v>1.000996097083948</v>
       </c>
       <c r="T15">
-        <v>0.9984605512392939</v>
+        <v>1.000214981631347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8195309410071204</v>
+        <v>0.9820018790682956</v>
       </c>
       <c r="D16">
-        <v>1.140252109431174</v>
+        <v>1.013878839255391</v>
       </c>
       <c r="E16">
-        <v>0.9461206265748646</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="F16">
-        <v>0.936550099305294</v>
+        <v>0.9937263055473855</v>
       </c>
       <c r="G16">
-        <v>1.251158159435448</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="H16">
-        <v>0.9326116139980668</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="I16">
-        <v>0.9461206265748646</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="J16">
-        <v>1.251158159435448</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="K16">
-        <v>0.9461206265748646</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="L16">
-        <v>0.9326116139980668</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="M16">
-        <v>1.091884886716757</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="N16">
-        <v>1.091884886716757</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="O16">
-        <v>1.10800729428823</v>
+        <v>1.010653403888298</v>
       </c>
       <c r="P16">
-        <v>1.043296800002793</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="Q16">
-        <v>1.043296800002793</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="R16">
-        <v>1.019002756645811</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="S16">
-        <v>1.019002756645811</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="T16">
-        <v>1.004370591625328</v>
+        <v>1.000413935659493</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.855559283164994</v>
+        <v>0.965611470445898</v>
       </c>
       <c r="D17">
-        <v>1.114785102228685</v>
+        <v>1.026598725266708</v>
       </c>
       <c r="E17">
-        <v>0.9530495347344848</v>
+        <v>0.9899442852227567</v>
       </c>
       <c r="F17">
-        <v>0.9479279806077902</v>
+        <v>0.9879693908366279</v>
       </c>
       <c r="G17">
-        <v>1.207098857589741</v>
+        <v>1.047586651446227</v>
       </c>
       <c r="H17">
-        <v>0.9458203470037488</v>
+        <v>0.9871566695739314</v>
       </c>
       <c r="I17">
-        <v>0.9530495347344848</v>
+        <v>0.9899442852227567</v>
       </c>
       <c r="J17">
-        <v>1.207098857589741</v>
+        <v>1.047586651446227</v>
       </c>
       <c r="K17">
-        <v>0.9530495347344848</v>
+        <v>0.9899442852227567</v>
       </c>
       <c r="L17">
-        <v>0.9458203470037488</v>
+        <v>0.9871566695739314</v>
       </c>
       <c r="M17">
-        <v>1.076459602296745</v>
+        <v>1.017371660510079</v>
       </c>
       <c r="N17">
-        <v>1.076459602296745</v>
+        <v>1.017371660510079</v>
       </c>
       <c r="O17">
-        <v>1.089234768940725</v>
+        <v>1.020447348762289</v>
       </c>
       <c r="P17">
-        <v>1.035322913109325</v>
+        <v>1.008229202080972</v>
       </c>
       <c r="Q17">
-        <v>1.035322913109325</v>
+        <v>1.008229202080972</v>
       </c>
       <c r="R17">
-        <v>1.014754568515615</v>
+        <v>1.003657972866418</v>
       </c>
       <c r="S17">
-        <v>1.014754568515615</v>
+        <v>1.003657972866418</v>
       </c>
       <c r="T17">
-        <v>1.004040184221574</v>
+        <v>1.000811198798691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9280009052826524</v>
+        <v>0.9496177327473766</v>
       </c>
       <c r="D18">
-        <v>1.063411355185691</v>
+        <v>1.039012933988795</v>
       </c>
       <c r="E18">
-        <v>0.9672335123236465</v>
+        <v>0.9852064189222937</v>
       </c>
       <c r="F18">
-        <v>0.9708909137842848</v>
+        <v>0.982350944123512</v>
       </c>
       <c r="G18">
-        <v>1.11810503794266</v>
+        <v>1.069830209349196</v>
       </c>
       <c r="H18">
-        <v>0.9723960163036502</v>
+        <v>0.9811758551661557</v>
       </c>
       <c r="I18">
-        <v>0.9672335123236465</v>
+        <v>0.9852064189222937</v>
       </c>
       <c r="J18">
-        <v>1.11810503794266</v>
+        <v>1.069830209349196</v>
       </c>
       <c r="K18">
-        <v>0.9672335123236465</v>
+        <v>0.9852064189222937</v>
       </c>
       <c r="L18">
-        <v>0.9723960163036502</v>
+        <v>0.9811758551661557</v>
       </c>
       <c r="M18">
-        <v>1.045250527123155</v>
+        <v>1.025503032257676</v>
       </c>
       <c r="N18">
-        <v>1.045250527123155</v>
+        <v>1.025503032257676</v>
       </c>
       <c r="O18">
-        <v>1.051304136477334</v>
+        <v>1.030006332834716</v>
       </c>
       <c r="P18">
-        <v>1.019244855523319</v>
+        <v>1.012070827812549</v>
       </c>
       <c r="Q18">
-        <v>1.019244855523319</v>
+        <v>1.012070827812549</v>
       </c>
       <c r="R18">
-        <v>1.006242019723401</v>
+        <v>1.005354725589985</v>
       </c>
       <c r="S18">
-        <v>1.006242019723401</v>
+        <v>1.005354725589985</v>
       </c>
       <c r="T18">
-        <v>1.003339623470431</v>
+        <v>1.001199015716222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9234564864546959</v>
+        <v>0.9994677369930743</v>
       </c>
       <c r="D19">
-        <v>1.069161356398034</v>
+        <v>1.000473457694569</v>
       </c>
       <c r="E19">
-        <v>0.9627517958796822</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="F19">
-        <v>0.96811247261483</v>
+        <v>0.999782014874552</v>
       </c>
       <c r="G19">
-        <v>1.130118461453029</v>
+        <v>1.000887214519522</v>
       </c>
       <c r="H19">
-        <v>0.9703185076453285</v>
+        <v>0.9997941637314497</v>
       </c>
       <c r="I19">
-        <v>0.9627517958796822</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="J19">
-        <v>1.130118461453029</v>
+        <v>1.000887214519522</v>
       </c>
       <c r="K19">
-        <v>0.9627517958796822</v>
+        <v>0.9997524917150109</v>
       </c>
       <c r="L19">
-        <v>0.9703185076453285</v>
+        <v>0.9997941637314497</v>
       </c>
       <c r="M19">
-        <v>1.050218484549179</v>
+        <v>1.000340689125486</v>
       </c>
       <c r="N19">
-        <v>1.050218484549179</v>
+        <v>1.000340689125486</v>
       </c>
       <c r="O19">
-        <v>1.056532775165464</v>
+        <v>1.00038494531518</v>
       </c>
       <c r="P19">
-        <v>1.021062921659347</v>
+        <v>1.000144623321994</v>
       </c>
       <c r="Q19">
-        <v>1.021062921659347</v>
+        <v>1.000144623321994</v>
       </c>
       <c r="R19">
-        <v>1.00648514021443</v>
+        <v>1.000046590420248</v>
       </c>
       <c r="S19">
-        <v>1.00648514021443</v>
+        <v>1.000046590420248</v>
       </c>
       <c r="T19">
-        <v>1.0039865134076</v>
+        <v>1.000026179921363</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000018087500562</v>
+        <v>0.9987440622251661</v>
       </c>
       <c r="D20">
-        <v>1.000031340923626</v>
+        <v>1.001101546149647</v>
       </c>
       <c r="E20">
-        <v>0.9999379112626189</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="F20">
-        <v>0.9999829948436013</v>
+        <v>0.9994934225973233</v>
       </c>
       <c r="G20">
-        <v>1.000085630505559</v>
+        <v>1.002057179845206</v>
       </c>
       <c r="H20">
-        <v>1.000001547117278</v>
+        <v>0.9995152497371319</v>
       </c>
       <c r="I20">
-        <v>0.9999379112626189</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="J20">
-        <v>1.000085630505559</v>
+        <v>1.002057179845206</v>
       </c>
       <c r="K20">
-        <v>0.9999379112626189</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="L20">
-        <v>1.000001547117278</v>
+        <v>0.9995152497371319</v>
       </c>
       <c r="M20">
-        <v>1.000043588811419</v>
+        <v>1.000786214791169</v>
       </c>
       <c r="N20">
-        <v>1.000043588811419</v>
+        <v>1.000786214791169</v>
       </c>
       <c r="O20">
-        <v>1.000039506182154</v>
+        <v>1.000891325243995</v>
       </c>
       <c r="P20">
-        <v>1.000008362961819</v>
+        <v>1.000337603579724</v>
       </c>
       <c r="Q20">
-        <v>1.000008362961819</v>
+        <v>1.000337603579724</v>
       </c>
       <c r="R20">
-        <v>0.9999907500370186</v>
+        <v>1.000113297974002</v>
       </c>
       <c r="S20">
-        <v>0.9999907500370186</v>
+        <v>1.000113297974002</v>
       </c>
       <c r="T20">
-        <v>1.000009585358874</v>
+        <v>1.000058640285218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.999249993744873</v>
+        <v>0.9982744018085828</v>
       </c>
       <c r="D21">
-        <v>1.00063053252818</v>
+        <v>1.001465777404149</v>
       </c>
       <c r="E21">
-        <v>0.9997061612873858</v>
+        <v>0.9993015293385646</v>
       </c>
       <c r="F21">
-        <v>0.9997115686192783</v>
+        <v>0.9993286405526665</v>
       </c>
       <c r="G21">
-        <v>1.001161599564797</v>
+        <v>1.002709296505295</v>
       </c>
       <c r="H21">
-        <v>0.9997137931367969</v>
+        <v>0.9993397973720599</v>
       </c>
       <c r="I21">
-        <v>0.9997061612873858</v>
+        <v>0.9993015293385646</v>
       </c>
       <c r="J21">
-        <v>1.001161599564797</v>
+        <v>1.002709296505295</v>
       </c>
       <c r="K21">
-        <v>0.9997061612873858</v>
+        <v>0.9993015293385646</v>
       </c>
       <c r="L21">
-        <v>0.9997137931367969</v>
+        <v>0.9993397973720599</v>
       </c>
       <c r="M21">
-        <v>1.000437696350797</v>
+        <v>1.001024546938678</v>
       </c>
       <c r="N21">
-        <v>1.000437696350797</v>
+        <v>1.001024546938678</v>
       </c>
       <c r="O21">
-        <v>1.000501975076592</v>
+        <v>1.001171623760501</v>
       </c>
       <c r="P21">
-        <v>1.00019385132966</v>
+        <v>1.00045020773864</v>
       </c>
       <c r="Q21">
-        <v>1.00019385132966</v>
+        <v>1.00045020773864</v>
       </c>
       <c r="R21">
-        <v>1.000071928819091</v>
+        <v>1.000163038138621</v>
       </c>
       <c r="S21">
-        <v>1.000071928819091</v>
+        <v>1.000163038138621</v>
       </c>
       <c r="T21">
-        <v>1.000028941480219</v>
+        <v>1.000069907163553</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9971900420712164</v>
+        <v>0.9962634873783237</v>
       </c>
       <c r="D22">
-        <v>1.002215812836935</v>
+        <v>1.003236024848432</v>
       </c>
       <c r="E22">
-        <v>0.9991111304489451</v>
+        <v>0.9983954358313974</v>
       </c>
       <c r="F22">
-        <v>0.998996097364347</v>
+        <v>0.9985142701038119</v>
       </c>
       <c r="G22">
-        <v>1.003985143631104</v>
+        <v>1.006018463015063</v>
       </c>
       <c r="H22">
-        <v>0.9989487574123793</v>
+        <v>0.9985631728940386</v>
       </c>
       <c r="I22">
-        <v>0.9991111304489451</v>
+        <v>0.9983954358313974</v>
       </c>
       <c r="J22">
-        <v>1.003985143631104</v>
+        <v>1.006018463015063</v>
       </c>
       <c r="K22">
-        <v>0.9991111304489451</v>
+        <v>0.9983954358313974</v>
       </c>
       <c r="L22">
-        <v>0.9989487574123793</v>
+        <v>0.9985631728940386</v>
       </c>
       <c r="M22">
-        <v>1.001466950521742</v>
+        <v>1.002290817954551</v>
       </c>
       <c r="N22">
-        <v>1.001466950521742</v>
+        <v>1.002290817954551</v>
       </c>
       <c r="O22">
-        <v>1.001716571293473</v>
+        <v>1.002605886919178</v>
       </c>
       <c r="P22">
-        <v>1.000681677164143</v>
+        <v>1.000992357246833</v>
       </c>
       <c r="Q22">
-        <v>1.000681677164143</v>
+        <v>1.000992357246833</v>
       </c>
       <c r="R22">
-        <v>1.000289040485344</v>
+        <v>1.000343126892974</v>
       </c>
       <c r="S22">
-        <v>1.000289040485344</v>
+        <v>1.000343126892974</v>
       </c>
       <c r="T22">
-        <v>1.000074497294154</v>
+        <v>1.000165142345178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.993892838504829</v>
+      </c>
+      <c r="D23">
+        <v>1.005146636794025</v>
+      </c>
+      <c r="E23">
+        <v>0.9975927303388185</v>
+      </c>
+      <c r="F23">
+        <v>0.9976441905318345</v>
+      </c>
+      <c r="G23">
+        <v>1.009494645507266</v>
+      </c>
+      <c r="H23">
+        <v>0.997665366057455</v>
+      </c>
+      <c r="I23">
+        <v>0.9975927303388185</v>
+      </c>
+      <c r="J23">
+        <v>1.009494645507266</v>
+      </c>
+      <c r="K23">
+        <v>0.9975927303388185</v>
+      </c>
+      <c r="L23">
+        <v>0.997665366057455</v>
+      </c>
+      <c r="M23">
+        <v>1.003580005782361</v>
+      </c>
+      <c r="N23">
+        <v>1.003580005782361</v>
+      </c>
+      <c r="O23">
+        <v>1.004102216119582</v>
+      </c>
+      <c r="P23">
+        <v>1.00158424730118</v>
+      </c>
+      <c r="Q23">
+        <v>1.00158424730118</v>
+      </c>
+      <c r="R23">
+        <v>1.00058636806059</v>
+      </c>
+      <c r="S23">
+        <v>1.00058636806059</v>
+      </c>
+      <c r="T23">
+        <v>1.000239401289038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="D24">
+        <v>0.9641860394047039</v>
+      </c>
+      <c r="E24">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="F24">
+        <v>1.017965533339757</v>
+      </c>
+      <c r="G24">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="H24">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="I24">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="J24">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="K24">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="L24">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="M24">
+        <v>0.9609201891082582</v>
+      </c>
+      <c r="N24">
+        <v>0.9609201891082582</v>
+      </c>
+      <c r="O24">
+        <v>0.9620088058737402</v>
+      </c>
+      <c r="P24">
+        <v>0.9903880506625288</v>
+      </c>
+      <c r="Q24">
+        <v>0.9903880506625288</v>
+      </c>
+      <c r="R24">
+        <v>1.005121981439664</v>
+      </c>
+      <c r="S24">
+        <v>1.005121981439664</v>
+      </c>
+      <c r="T24">
+        <v>0.9931486654183216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.026029837573964</v>
+      </c>
+      <c r="D25">
+        <v>0.9916196386969702</v>
+      </c>
+      <c r="E25">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="F25">
+        <v>1.003141381619977</v>
+      </c>
+      <c r="G25">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="H25">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="I25">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="J25">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="K25">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="L25">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="M25">
+        <v>1.000361342802837</v>
+      </c>
+      <c r="N25">
+        <v>1.000361342802837</v>
+      </c>
+      <c r="O25">
+        <v>0.997447441434215</v>
+      </c>
+      <c r="P25">
+        <v>0.9968315813734189</v>
+      </c>
+      <c r="Q25">
+        <v>0.9968315813734189</v>
+      </c>
+      <c r="R25">
+        <v>0.9950667006587096</v>
+      </c>
+      <c r="S25">
+        <v>0.9950667006587096</v>
+      </c>
+      <c r="T25">
+        <v>1.001880933668528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="D26">
+        <v>0.9187852692934646</v>
+      </c>
+      <c r="E26">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="F26">
+        <v>1.036365664109581</v>
+      </c>
+      <c r="G26">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="H26">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="I26">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="J26">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="K26">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="L26">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="M26">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="N26">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="O26">
+        <v>0.9396033915414875</v>
+      </c>
+      <c r="P26">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="Q26">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="R26">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="S26">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="T26">
+        <v>0.9986594163053025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.020170741794812</v>
+      </c>
+      <c r="D27">
+        <v>0.9785906152089123</v>
+      </c>
+      <c r="E27">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="F27">
+        <v>1.009863379150939</v>
+      </c>
+      <c r="G27">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="H27">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="I27">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="J27">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="K27">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="L27">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="M27">
+        <v>0.9834018230436282</v>
+      </c>
+      <c r="N27">
+        <v>0.9834018230436282</v>
+      </c>
+      <c r="O27">
+        <v>0.981798087098723</v>
+      </c>
+      <c r="P27">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="Q27">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="R27">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="S27">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="T27">
+        <v>0.9984605512392939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8195309410071204</v>
+      </c>
+      <c r="D28">
+        <v>1.140252109431174</v>
+      </c>
+      <c r="E28">
+        <v>0.9461206265748646</v>
+      </c>
+      <c r="F28">
+        <v>0.936550099305294</v>
+      </c>
+      <c r="G28">
+        <v>1.251158159435448</v>
+      </c>
+      <c r="H28">
+        <v>0.9326116139980668</v>
+      </c>
+      <c r="I28">
+        <v>0.9461206265748646</v>
+      </c>
+      <c r="J28">
+        <v>1.251158159435448</v>
+      </c>
+      <c r="K28">
+        <v>0.9461206265748646</v>
+      </c>
+      <c r="L28">
+        <v>0.9326116139980668</v>
+      </c>
+      <c r="M28">
+        <v>1.091884886716757</v>
+      </c>
+      <c r="N28">
+        <v>1.091884886716757</v>
+      </c>
+      <c r="O28">
+        <v>1.10800729428823</v>
+      </c>
+      <c r="P28">
+        <v>1.043296800002793</v>
+      </c>
+      <c r="Q28">
+        <v>1.043296800002793</v>
+      </c>
+      <c r="R28">
+        <v>1.019002756645811</v>
+      </c>
+      <c r="S28">
+        <v>1.019002756645811</v>
+      </c>
+      <c r="T28">
+        <v>1.004370591625328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.855559283164994</v>
+      </c>
+      <c r="D29">
+        <v>1.114785102228685</v>
+      </c>
+      <c r="E29">
+        <v>0.9530495347344848</v>
+      </c>
+      <c r="F29">
+        <v>0.9479279806077902</v>
+      </c>
+      <c r="G29">
+        <v>1.207098857589741</v>
+      </c>
+      <c r="H29">
+        <v>0.9458203470037488</v>
+      </c>
+      <c r="I29">
+        <v>0.9530495347344848</v>
+      </c>
+      <c r="J29">
+        <v>1.207098857589741</v>
+      </c>
+      <c r="K29">
+        <v>0.9530495347344848</v>
+      </c>
+      <c r="L29">
+        <v>0.9458203470037488</v>
+      </c>
+      <c r="M29">
+        <v>1.076459602296745</v>
+      </c>
+      <c r="N29">
+        <v>1.076459602296745</v>
+      </c>
+      <c r="O29">
+        <v>1.089234768940725</v>
+      </c>
+      <c r="P29">
+        <v>1.035322913109325</v>
+      </c>
+      <c r="Q29">
+        <v>1.035322913109325</v>
+      </c>
+      <c r="R29">
+        <v>1.014754568515615</v>
+      </c>
+      <c r="S29">
+        <v>1.014754568515615</v>
+      </c>
+      <c r="T29">
+        <v>1.004040184221574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9280009052826524</v>
+      </c>
+      <c r="D30">
+        <v>1.063411355185691</v>
+      </c>
+      <c r="E30">
+        <v>0.9672335123236465</v>
+      </c>
+      <c r="F30">
+        <v>0.9708909137842848</v>
+      </c>
+      <c r="G30">
+        <v>1.11810503794266</v>
+      </c>
+      <c r="H30">
+        <v>0.9723960163036502</v>
+      </c>
+      <c r="I30">
+        <v>0.9672335123236465</v>
+      </c>
+      <c r="J30">
+        <v>1.11810503794266</v>
+      </c>
+      <c r="K30">
+        <v>0.9672335123236465</v>
+      </c>
+      <c r="L30">
+        <v>0.9723960163036502</v>
+      </c>
+      <c r="M30">
+        <v>1.045250527123155</v>
+      </c>
+      <c r="N30">
+        <v>1.045250527123155</v>
+      </c>
+      <c r="O30">
+        <v>1.051304136477334</v>
+      </c>
+      <c r="P30">
+        <v>1.019244855523319</v>
+      </c>
+      <c r="Q30">
+        <v>1.019244855523319</v>
+      </c>
+      <c r="R30">
+        <v>1.006242019723401</v>
+      </c>
+      <c r="S30">
+        <v>1.006242019723401</v>
+      </c>
+      <c r="T30">
+        <v>1.003339623470431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9234564864546959</v>
+      </c>
+      <c r="D31">
+        <v>1.069161356398034</v>
+      </c>
+      <c r="E31">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="F31">
+        <v>0.96811247261483</v>
+      </c>
+      <c r="G31">
+        <v>1.130118461453029</v>
+      </c>
+      <c r="H31">
+        <v>0.9703185076453285</v>
+      </c>
+      <c r="I31">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="J31">
+        <v>1.130118461453029</v>
+      </c>
+      <c r="K31">
+        <v>0.9627517958796822</v>
+      </c>
+      <c r="L31">
+        <v>0.9703185076453285</v>
+      </c>
+      <c r="M31">
+        <v>1.050218484549179</v>
+      </c>
+      <c r="N31">
+        <v>1.050218484549179</v>
+      </c>
+      <c r="O31">
+        <v>1.056532775165464</v>
+      </c>
+      <c r="P31">
+        <v>1.021062921659347</v>
+      </c>
+      <c r="Q31">
+        <v>1.021062921659347</v>
+      </c>
+      <c r="R31">
+        <v>1.00648514021443</v>
+      </c>
+      <c r="S31">
+        <v>1.00648514021443</v>
+      </c>
+      <c r="T31">
+        <v>1.0039865134076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7870482147945207</v>
+      </c>
+      <c r="D32">
+        <v>1.162055473150685</v>
+      </c>
+      <c r="E32">
+        <v>0.9416496057534244</v>
+      </c>
+      <c r="F32">
+        <v>0.9268749736986306</v>
+      </c>
+      <c r="G32">
+        <v>1.288145078082192</v>
+      </c>
+      <c r="H32">
+        <v>0.9207948827397261</v>
+      </c>
+      <c r="I32">
+        <v>0.9416496057534244</v>
+      </c>
+      <c r="J32">
+        <v>1.288145078082192</v>
+      </c>
+      <c r="K32">
+        <v>0.9416496057534244</v>
+      </c>
+      <c r="L32">
+        <v>0.9207948827397261</v>
+      </c>
+      <c r="M32">
+        <v>1.104469980410959</v>
+      </c>
+      <c r="N32">
+        <v>1.104469980410959</v>
+      </c>
+      <c r="O32">
+        <v>1.123665144657534</v>
+      </c>
+      <c r="P32">
+        <v>1.050196522191781</v>
+      </c>
+      <c r="Q32">
+        <v>1.050196522191781</v>
+      </c>
+      <c r="R32">
+        <v>1.023059793082192</v>
+      </c>
+      <c r="S32">
+        <v>1.023059793082192</v>
+      </c>
+      <c r="T32">
+        <v>1.00442803803653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="D33">
+        <v>0.9699431852631578</v>
+      </c>
+      <c r="E33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="F33">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="G33">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="H33">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="J33">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="K33">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L33">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="N33">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="O33">
+        <v>0.9826911708771932</v>
+      </c>
+      <c r="P33">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="Q33">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="R33">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T33">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="D34">
+        <v>0.9699431852631578</v>
+      </c>
+      <c r="E34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="F34">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="G34">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="H34">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="I34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="J34">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="K34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L34">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M34">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="N34">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="O34">
+        <v>0.9826911708771932</v>
+      </c>
+      <c r="P34">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="Q34">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="R34">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S34">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T34">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7207833231485085</v>
+      </c>
+      <c r="D35">
+        <v>1.253773266741222</v>
+      </c>
+      <c r="E35">
+        <v>0.8619214822904205</v>
+      </c>
+      <c r="F35">
+        <v>0.8829148390083386</v>
+      </c>
+      <c r="G35">
+        <v>1.478280011773282</v>
+      </c>
+      <c r="H35">
+        <v>0.8915540838676829</v>
+      </c>
+      <c r="I35">
+        <v>0.8619214822904205</v>
+      </c>
+      <c r="J35">
+        <v>1.478280011773282</v>
+      </c>
+      <c r="K35">
+        <v>0.8619214822904205</v>
+      </c>
+      <c r="L35">
+        <v>0.8915540838676829</v>
+      </c>
+      <c r="M35">
+        <v>1.184917047820482</v>
+      </c>
+      <c r="N35">
+        <v>1.184917047820482</v>
+      </c>
+      <c r="O35">
+        <v>1.207869120794062</v>
+      </c>
+      <c r="P35">
+        <v>1.077251859310462</v>
+      </c>
+      <c r="Q35">
+        <v>1.077251859310462</v>
+      </c>
+      <c r="R35">
+        <v>1.023419265055451</v>
+      </c>
+      <c r="S35">
+        <v>1.023419265055451</v>
+      </c>
+      <c r="T35">
+        <v>1.014871167804909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000018087500562</v>
+      </c>
+      <c r="D36">
+        <v>1.000031340923626</v>
+      </c>
+      <c r="E36">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="F36">
+        <v>0.9999829948436013</v>
+      </c>
+      <c r="G36">
+        <v>1.000085630505559</v>
+      </c>
+      <c r="H36">
+        <v>1.000001547117278</v>
+      </c>
+      <c r="I36">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="J36">
+        <v>1.000085630505559</v>
+      </c>
+      <c r="K36">
+        <v>0.9999379112626189</v>
+      </c>
+      <c r="L36">
+        <v>1.000001547117278</v>
+      </c>
+      <c r="M36">
+        <v>1.000043588811419</v>
+      </c>
+      <c r="N36">
+        <v>1.000043588811419</v>
+      </c>
+      <c r="O36">
+        <v>1.000039506182154</v>
+      </c>
+      <c r="P36">
+        <v>1.000008362961819</v>
+      </c>
+      <c r="Q36">
+        <v>1.000008362961819</v>
+      </c>
+      <c r="R36">
+        <v>0.9999907500370186</v>
+      </c>
+      <c r="S36">
+        <v>0.9999907500370186</v>
+      </c>
+      <c r="T36">
+        <v>1.000009585358874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.999249993744873</v>
+      </c>
+      <c r="D37">
+        <v>1.00063053252818</v>
+      </c>
+      <c r="E37">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="F37">
+        <v>0.9997115686192783</v>
+      </c>
+      <c r="G37">
+        <v>1.001161599564797</v>
+      </c>
+      <c r="H37">
+        <v>0.9997137931367969</v>
+      </c>
+      <c r="I37">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="J37">
+        <v>1.001161599564797</v>
+      </c>
+      <c r="K37">
+        <v>0.9997061612873858</v>
+      </c>
+      <c r="L37">
+        <v>0.9997137931367969</v>
+      </c>
+      <c r="M37">
+        <v>1.000437696350797</v>
+      </c>
+      <c r="N37">
+        <v>1.000437696350797</v>
+      </c>
+      <c r="O37">
+        <v>1.000501975076592</v>
+      </c>
+      <c r="P37">
+        <v>1.00019385132966</v>
+      </c>
+      <c r="Q37">
+        <v>1.00019385132966</v>
+      </c>
+      <c r="R37">
+        <v>1.000071928819091</v>
+      </c>
+      <c r="S37">
+        <v>1.000071928819091</v>
+      </c>
+      <c r="T37">
+        <v>1.000028941480219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9971900420712164</v>
+      </c>
+      <c r="D38">
+        <v>1.002215812836935</v>
+      </c>
+      <c r="E38">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="F38">
+        <v>0.998996097364347</v>
+      </c>
+      <c r="G38">
+        <v>1.003985143631104</v>
+      </c>
+      <c r="H38">
+        <v>0.9989487574123793</v>
+      </c>
+      <c r="I38">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="J38">
+        <v>1.003985143631104</v>
+      </c>
+      <c r="K38">
+        <v>0.9991111304489451</v>
+      </c>
+      <c r="L38">
+        <v>0.9989487574123793</v>
+      </c>
+      <c r="M38">
+        <v>1.001466950521742</v>
+      </c>
+      <c r="N38">
+        <v>1.001466950521742</v>
+      </c>
+      <c r="O38">
+        <v>1.001716571293473</v>
+      </c>
+      <c r="P38">
+        <v>1.000681677164143</v>
+      </c>
+      <c r="Q38">
+        <v>1.000681677164143</v>
+      </c>
+      <c r="R38">
+        <v>1.000289040485344</v>
+      </c>
+      <c r="S38">
+        <v>1.000289040485344</v>
+      </c>
+      <c r="T38">
+        <v>1.000074497294154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9932450448495725</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.005184906510019</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9980810720599085</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9976580228458722</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.009245377003971</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9974839281339283</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9980810720599085</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.009245377003971</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9980810720599085</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9974839281339283</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.003364652568949</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.003364652568949</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.003971403882639</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001603459065936</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001603459065936</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000722862314429</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000722862314429</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000149725233879</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.012683271318435</v>
+      </c>
+      <c r="D40">
+        <v>0.984164676105272</v>
+      </c>
+      <c r="E40">
+        <v>1.012985846721062</v>
+      </c>
+      <c r="F40">
+        <v>1.007465160176993</v>
+      </c>
+      <c r="G40">
+        <v>0.9682540596602239</v>
+      </c>
+      <c r="H40">
+        <v>1.005193275121109</v>
+      </c>
+      <c r="I40">
+        <v>1.012985846721062</v>
+      </c>
+      <c r="J40">
+        <v>0.9682540596602239</v>
+      </c>
+      <c r="K40">
+        <v>1.012985846721062</v>
+      </c>
+      <c r="L40">
+        <v>1.005193275121109</v>
+      </c>
+      <c r="M40">
+        <v>0.9867236673906663</v>
+      </c>
+      <c r="N40">
+        <v>0.9867236673906663</v>
+      </c>
+      <c r="O40">
+        <v>0.9858706702955349</v>
+      </c>
+      <c r="P40">
+        <v>0.9954777271674647</v>
+      </c>
+      <c r="Q40">
+        <v>0.9954777271674647</v>
+      </c>
+      <c r="R40">
+        <v>0.999854757055864</v>
+      </c>
+      <c r="S40">
+        <v>0.999854757055864</v>
+      </c>
+      <c r="T40">
+        <v>0.9984577148505157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9912923161978356</v>
+      </c>
+      <c r="D41">
+        <v>1.003625955191372</v>
+      </c>
+      <c r="E41">
+        <v>1.002068337703904</v>
+      </c>
+      <c r="F41">
+        <v>0.9985554228856311</v>
+      </c>
+      <c r="G41">
+        <v>1.004449246747114</v>
+      </c>
+      <c r="H41">
+        <v>0.9971097792408909</v>
+      </c>
+      <c r="I41">
+        <v>1.002068337703904</v>
+      </c>
+      <c r="J41">
+        <v>1.004449246747114</v>
+      </c>
+      <c r="K41">
+        <v>1.002068337703904</v>
+      </c>
+      <c r="L41">
+        <v>0.9971097792408909</v>
+      </c>
+      <c r="M41">
+        <v>1.000779512994002</v>
+      </c>
+      <c r="N41">
+        <v>1.000779512994002</v>
+      </c>
+      <c r="O41">
+        <v>1.001728327059792</v>
+      </c>
+      <c r="P41">
+        <v>1.001209121230636</v>
+      </c>
+      <c r="Q41">
+        <v>1.001209121230636</v>
+      </c>
+      <c r="R41">
+        <v>1.001423925348953</v>
+      </c>
+      <c r="S41">
+        <v>1.001423925348953</v>
+      </c>
+      <c r="T41">
+        <v>0.9995168429944578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8836471914973517</v>
+      </c>
+      <c r="D42">
+        <v>1.090129705633509</v>
+      </c>
+      <c r="E42">
+        <v>0.9652535746970721</v>
+      </c>
+      <c r="F42">
+        <v>0.9593449145821695</v>
+      </c>
+      <c r="G42">
+        <v>1.160498658954067</v>
+      </c>
+      <c r="H42">
+        <v>0.9569133731019354</v>
+      </c>
+      <c r="I42">
+        <v>0.9652535746970721</v>
+      </c>
+      <c r="J42">
+        <v>1.160498658954067</v>
+      </c>
+      <c r="K42">
+        <v>0.9652535746970721</v>
+      </c>
+      <c r="L42">
+        <v>0.9569133731019354</v>
+      </c>
+      <c r="M42">
+        <v>1.058706016028001</v>
+      </c>
+      <c r="N42">
+        <v>1.058706016028001</v>
+      </c>
+      <c r="O42">
+        <v>1.069180579229837</v>
+      </c>
+      <c r="P42">
+        <v>1.027555202251025</v>
+      </c>
+      <c r="Q42">
+        <v>1.027555202251025</v>
+      </c>
+      <c r="R42">
+        <v>1.011979795362537</v>
+      </c>
+      <c r="S42">
+        <v>1.011979795362537</v>
+      </c>
+      <c r="T42">
+        <v>1.002631236411017</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9973088039035626</v>
+        <v>0.9987440622251661</v>
       </c>
       <c r="D3">
-        <v>1.012847005372544</v>
+        <v>1.001101546149647</v>
       </c>
       <c r="E3">
-        <v>0.9965197751561228</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="F3">
-        <v>0.9973088039035626</v>
+        <v>0.9994934225973233</v>
       </c>
       <c r="G3">
-        <v>0.9906757089077037</v>
+        <v>1.002057179845206</v>
       </c>
       <c r="H3">
-        <v>1.007188783702112</v>
+        <v>0.9995152497371319</v>
       </c>
       <c r="I3">
-        <v>0.9967498127460401</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="J3">
-        <v>1.012847005372544</v>
+        <v>1.002057179845206</v>
       </c>
       <c r="K3">
-        <v>0.9973088039035626</v>
+        <v>0.9994403811568343</v>
       </c>
       <c r="L3">
-        <v>0.9965197751561228</v>
+        <v>0.9995152497371319</v>
       </c>
       <c r="M3">
-        <v>1.004683390264334</v>
+        <v>1.000786214791169</v>
       </c>
       <c r="N3">
-        <v>1.004683390264334</v>
+        <v>1.000786214791169</v>
       </c>
       <c r="O3">
-        <v>1.00551852141026</v>
+        <v>1.000891325243995</v>
       </c>
       <c r="P3">
-        <v>1.002225194810743</v>
+        <v>1.000337603579724</v>
       </c>
       <c r="Q3">
-        <v>1.002225194810743</v>
+        <v>1.000337603579724</v>
       </c>
       <c r="R3">
-        <v>1.000996097083948</v>
+        <v>1.000113297974002</v>
       </c>
       <c r="S3">
-        <v>1.000996097083948</v>
+        <v>1.000113297974002</v>
       </c>
       <c r="T3">
-        <v>1.000214981631347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000058640285218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9947952176763851</v>
+        <v>1.012683271318435</v>
       </c>
       <c r="D4">
-        <v>1.024794949591065</v>
+        <v>0.984164676105272</v>
       </c>
       <c r="E4">
-        <v>0.9932864228184392</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="F4">
-        <v>0.9947952176763851</v>
+        <v>1.007465160176993</v>
       </c>
       <c r="G4">
-        <v>0.9820018790682956</v>
+        <v>0.9682540596602239</v>
       </c>
       <c r="H4">
-        <v>1.013878839255391</v>
+        <v>1.005193275121109</v>
       </c>
       <c r="I4">
-        <v>0.9937263055473855</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="J4">
-        <v>1.024794949591065</v>
+        <v>0.9682540596602239</v>
       </c>
       <c r="K4">
-        <v>0.9947952176763851</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="L4">
-        <v>0.9932864228184392</v>
+        <v>1.005193275121109</v>
       </c>
       <c r="M4">
-        <v>1.009040686204752</v>
+        <v>0.9867236673906663</v>
       </c>
       <c r="N4">
-        <v>1.009040686204752</v>
+        <v>0.9867236673906663</v>
       </c>
       <c r="O4">
-        <v>1.010653403888298</v>
+        <v>0.9858706702955349</v>
       </c>
       <c r="P4">
-        <v>1.004292196695296</v>
+        <v>0.9954777271674647</v>
       </c>
       <c r="Q4">
-        <v>1.004292196695296</v>
+        <v>0.9954777271674647</v>
       </c>
       <c r="R4">
-        <v>1.001917951940569</v>
+        <v>0.999854757055864</v>
       </c>
       <c r="S4">
-        <v>1.001917951940569</v>
+        <v>0.999854757055864</v>
       </c>
       <c r="T4">
-        <v>1.000413935659493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9984577148505157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9899442852227567</v>
+        <v>0.9161138507564835</v>
       </c>
       <c r="D5">
-        <v>1.047586651446227</v>
+        <v>1.074154028587896</v>
       </c>
       <c r="E5">
-        <v>0.9871566695739314</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="F5">
-        <v>0.9899442852227567</v>
+        <v>0.9659332789913531</v>
       </c>
       <c r="G5">
-        <v>0.965611470445898</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="H5">
-        <v>1.026598725266708</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="I5">
-        <v>0.9879693908366279</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="J5">
-        <v>1.047586651446227</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="K5">
-        <v>0.9899442852227567</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="L5">
-        <v>0.9871566695739314</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="M5">
-        <v>1.017371660510079</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="N5">
-        <v>1.017371660510079</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="O5">
-        <v>1.020447348762289</v>
+        <v>1.060091546462537</v>
       </c>
       <c r="P5">
-        <v>1.008229202080972</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="Q5">
-        <v>1.008229202080972</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="R5">
-        <v>1.003657972866418</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="S5">
-        <v>1.003657972866418</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="T5">
-        <v>1.000811198798691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.003964590557156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9852064189222937</v>
+        <v>0.7207833231485085</v>
       </c>
       <c r="D6">
-        <v>1.069830209349196</v>
+        <v>1.253773266741222</v>
       </c>
       <c r="E6">
-        <v>0.9811758551661557</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="F6">
-        <v>0.9852064189222937</v>
+        <v>0.8829148390083386</v>
       </c>
       <c r="G6">
-        <v>0.9496177327473766</v>
+        <v>1.478280011773282</v>
       </c>
       <c r="H6">
-        <v>1.039012933988795</v>
+        <v>0.8915540838676829</v>
       </c>
       <c r="I6">
-        <v>0.982350944123512</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="J6">
-        <v>1.069830209349196</v>
+        <v>1.478280011773282</v>
       </c>
       <c r="K6">
-        <v>0.9852064189222937</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="L6">
-        <v>0.9811758551661557</v>
+        <v>0.8915540838676829</v>
       </c>
       <c r="M6">
-        <v>1.025503032257676</v>
+        <v>1.184917047820482</v>
       </c>
       <c r="N6">
-        <v>1.025503032257676</v>
+        <v>1.184917047820482</v>
       </c>
       <c r="O6">
-        <v>1.030006332834716</v>
+        <v>1.207869120794062</v>
       </c>
       <c r="P6">
-        <v>1.012070827812549</v>
+        <v>1.077251859310462</v>
       </c>
       <c r="Q6">
-        <v>1.012070827812549</v>
+        <v>1.077251859310462</v>
       </c>
       <c r="R6">
-        <v>1.005354725589985</v>
+        <v>1.023419265055451</v>
       </c>
       <c r="S6">
-        <v>1.005354725589985</v>
+        <v>1.023419265055451</v>
       </c>
       <c r="T6">
-        <v>1.001199015716222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.014871167804909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997524917150111</v>
+        <v>0.9903724921073769</v>
       </c>
       <c r="D7">
-        <v>1.000887214519521</v>
+        <v>1.00742756503678</v>
       </c>
       <c r="E7">
-        <v>0.9997941637314498</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="F7">
-        <v>0.9997524917150111</v>
+        <v>0.9966434719997015</v>
       </c>
       <c r="G7">
-        <v>0.9994677369930747</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="H7">
-        <v>1.00047345769457</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="I7">
-        <v>0.999782014874552</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="J7">
-        <v>1.000887214519521</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="K7">
-        <v>0.9997524917150111</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="L7">
-        <v>0.9997941637314498</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="M7">
-        <v>1.000340689125486</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="N7">
-        <v>1.000340689125486</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="O7">
-        <v>1.00038494531518</v>
+        <v>1.00570108866808</v>
       </c>
       <c r="P7">
-        <v>1.000144623321994</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="Q7">
-        <v>1.000144623321994</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="R7">
-        <v>1.000046590420248</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="S7">
-        <v>1.000046590420248</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="T7">
-        <v>1.000026179921363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000220759948956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994403811568345</v>
+        <v>0.999249993744873</v>
       </c>
       <c r="D8">
-        <v>1.002057179845206</v>
+        <v>1.00063053252818</v>
       </c>
       <c r="E8">
-        <v>0.9995152497371319</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="F8">
-        <v>0.9994403811568345</v>
+        <v>0.9997115686192783</v>
       </c>
       <c r="G8">
-        <v>0.9987440622251662</v>
+        <v>1.001161599564797</v>
       </c>
       <c r="H8">
-        <v>1.001101546149647</v>
+        <v>0.9997137931367969</v>
       </c>
       <c r="I8">
-        <v>0.9994934225973233</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="J8">
-        <v>1.002057179845206</v>
+        <v>1.001161599564797</v>
       </c>
       <c r="K8">
-        <v>0.9994403811568345</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="L8">
-        <v>0.9995152497371319</v>
+        <v>0.9997137931367969</v>
       </c>
       <c r="M8">
-        <v>1.000786214791169</v>
+        <v>1.000437696350797</v>
       </c>
       <c r="N8">
-        <v>1.000786214791169</v>
+        <v>1.000437696350797</v>
       </c>
       <c r="O8">
-        <v>1.000891325243995</v>
+        <v>1.000501975076592</v>
       </c>
       <c r="P8">
-        <v>1.000337603579724</v>
+        <v>1.00019385132966</v>
       </c>
       <c r="Q8">
-        <v>1.000337603579724</v>
+        <v>1.00019385132966</v>
       </c>
       <c r="R8">
-        <v>1.000113297974002</v>
+        <v>1.000071928819091</v>
       </c>
       <c r="S8">
-        <v>1.000113297974002</v>
+        <v>1.000071928819091</v>
       </c>
       <c r="T8">
-        <v>1.000058640285218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000028941480219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9993015293385646</v>
+        <v>0.9820018790682956</v>
       </c>
       <c r="D9">
-        <v>1.002709296505295</v>
+        <v>1.013878839255391</v>
       </c>
       <c r="E9">
-        <v>0.9993397973720599</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="F9">
-        <v>0.9993015293385646</v>
+        <v>0.9937263055473855</v>
       </c>
       <c r="G9">
-        <v>0.9982744018085828</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="H9">
-        <v>1.001465777404149</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="I9">
-        <v>0.9993286405526665</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="J9">
-        <v>1.002709296505295</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="K9">
-        <v>0.9993015293385646</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="L9">
-        <v>0.9993397973720599</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="M9">
-        <v>1.001024546938678</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="N9">
-        <v>1.001024546938678</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="O9">
-        <v>1.001171623760501</v>
+        <v>1.010653403888298</v>
       </c>
       <c r="P9">
-        <v>1.00045020773864</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="Q9">
-        <v>1.00045020773864</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="R9">
-        <v>1.000163038138621</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="S9">
-        <v>1.000163038138621</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="T9">
-        <v>1.000069907163553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000413935659493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9983954358313974</v>
+        <v>0.7171022072079563</v>
       </c>
       <c r="D10">
-        <v>1.006018463015063</v>
+        <v>1.257554934288631</v>
       </c>
       <c r="E10">
-        <v>0.9985631728940386</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="F10">
-        <v>0.9983954358313974</v>
+        <v>0.881127338654344</v>
       </c>
       <c r="G10">
-        <v>0.9962634873783234</v>
+        <v>1.485786731436507</v>
       </c>
       <c r="H10">
-        <v>1.003236024848432</v>
+        <v>0.8900113980690032</v>
       </c>
       <c r="I10">
-        <v>0.9985142701038117</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="J10">
-        <v>1.006018463015063</v>
+        <v>1.485786731436507</v>
       </c>
       <c r="K10">
-        <v>0.9983954358313974</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="L10">
-        <v>0.9985631728940386</v>
+        <v>0.8900113980690032</v>
       </c>
       <c r="M10">
-        <v>1.002290817954551</v>
+        <v>1.187899064752755</v>
       </c>
       <c r="N10">
-        <v>1.002290817954551</v>
+        <v>1.187899064752755</v>
       </c>
       <c r="O10">
-        <v>1.002605886919178</v>
+        <v>1.21111768793138</v>
       </c>
       <c r="P10">
-        <v>1.000992357246833</v>
+        <v>1.078445736396138</v>
       </c>
       <c r="Q10">
-        <v>1.000992357246833</v>
+        <v>1.078445736396138</v>
       </c>
       <c r="R10">
-        <v>1.000343126892974</v>
+        <v>1.02371907221783</v>
       </c>
       <c r="S10">
-        <v>1.000343126892974</v>
+        <v>1.02371907221783</v>
       </c>
       <c r="T10">
-        <v>1.000165142345178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.015186948223224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9975927303388185</v>
+        <v>0.9800442172474371</v>
       </c>
       <c r="D11">
-        <v>1.009494645507266</v>
+        <v>1.00587431029675</v>
       </c>
       <c r="E11">
-        <v>0.997665366057455</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="F11">
-        <v>0.9975927303388185</v>
+        <v>0.9979069908818856</v>
       </c>
       <c r="G11">
-        <v>0.993892838504829</v>
+        <v>1.004503526449884</v>
       </c>
       <c r="H11">
-        <v>1.005146636794025</v>
+        <v>0.9935402394670781</v>
       </c>
       <c r="I11">
-        <v>0.9976441905318345</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="J11">
-        <v>1.009494645507266</v>
+        <v>1.004503526449884</v>
       </c>
       <c r="K11">
-        <v>0.9975927303388185</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="L11">
-        <v>0.997665366057455</v>
+        <v>0.9935402394670781</v>
       </c>
       <c r="M11">
-        <v>1.003580005782361</v>
+        <v>0.9990218829584812</v>
       </c>
       <c r="N11">
-        <v>1.003580005782361</v>
+        <v>0.9990218829584812</v>
       </c>
       <c r="O11">
-        <v>1.004102216119582</v>
+        <v>1.001306025404571</v>
       </c>
       <c r="P11">
-        <v>1.00158424730118</v>
+        <v>1.002187324443516</v>
       </c>
       <c r="Q11">
-        <v>1.00158424730118</v>
+        <v>1.002187324443516</v>
       </c>
       <c r="R11">
-        <v>1.00058636806059</v>
+        <v>1.003770045186034</v>
       </c>
       <c r="S11">
-        <v>1.00058636806059</v>
+        <v>1.003770045186034</v>
       </c>
       <c r="T11">
-        <v>1.000239401289038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9983979152927703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04932377377107</v>
+        <v>0.9164604695052616</v>
       </c>
       <c r="D12">
-        <v>0.9167794763808607</v>
+        <v>1.07672714950526</v>
       </c>
       <c r="E12">
-        <v>1.005060901835656</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="F12">
-        <v>1.04932377377107</v>
+        <v>0.9645556965473668</v>
       </c>
       <c r="G12">
-        <v>1.005576267777883</v>
+        <v>1.145061507073684</v>
       </c>
       <c r="H12">
-        <v>0.9641860394047042</v>
+        <v>0.9674570230421088</v>
       </c>
       <c r="I12">
-        <v>1.017965533339756</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="J12">
-        <v>0.9167794763808607</v>
+        <v>1.145061507073684</v>
       </c>
       <c r="K12">
-        <v>1.04932377377107</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="L12">
-        <v>1.005060901835656</v>
+        <v>0.9674570230421088</v>
       </c>
       <c r="M12">
-        <v>0.9609201891082582</v>
+        <v>1.056259265057896</v>
       </c>
       <c r="N12">
-        <v>0.9609201891082582</v>
+        <v>1.056259265057896</v>
       </c>
       <c r="O12">
-        <v>0.9620088058737402</v>
+        <v>1.063081893207017</v>
       </c>
       <c r="P12">
-        <v>0.9903880506625287</v>
+        <v>1.023341332038596</v>
       </c>
       <c r="Q12">
-        <v>0.9903880506625288</v>
+        <v>1.023341332038596</v>
       </c>
       <c r="R12">
-        <v>1.005121981439664</v>
+        <v>1.006882365528946</v>
       </c>
       <c r="S12">
-        <v>1.005121981439664</v>
+        <v>1.006882365528946</v>
       </c>
       <c r="T12">
-        <v>0.9931486654183216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.004627885278946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9897720585145821</v>
+        <v>1.060401178490857</v>
       </c>
       <c r="D13">
-        <v>0.9920795375638962</v>
+        <v>0.9494021689235946</v>
       </c>
       <c r="E13">
-        <v>1.008643148041779</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="F13">
-        <v>0.9897720585145821</v>
+        <v>1.0229954816344</v>
       </c>
       <c r="G13">
-        <v>1.026029837573964</v>
+        <v>0.9078750946616826</v>
       </c>
       <c r="H13">
-        <v>0.9916196386969702</v>
+        <v>1.02257827724033</v>
       </c>
       <c r="I13">
-        <v>1.003141381619977</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="J13">
-        <v>0.9920795375638962</v>
+        <v>0.9078750946616826</v>
       </c>
       <c r="K13">
-        <v>0.9897720585145821</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="L13">
-        <v>1.008643148041779</v>
+        <v>1.02257827724033</v>
       </c>
       <c r="M13">
-        <v>1.000361342802838</v>
+        <v>0.9652266859510064</v>
       </c>
       <c r="N13">
-        <v>1.000361342802838</v>
+        <v>0.9652266859510064</v>
       </c>
       <c r="O13">
-        <v>0.997447441434215</v>
+        <v>0.9599518469418692</v>
       </c>
       <c r="P13">
-        <v>0.996831581373419</v>
+        <v>0.9848208822166962</v>
       </c>
       <c r="Q13">
-        <v>0.996831581373419</v>
+        <v>0.9848208822166962</v>
       </c>
       <c r="R13">
-        <v>0.9950667006587097</v>
+        <v>0.9946179803495412</v>
       </c>
       <c r="S13">
-        <v>0.9950667006587097</v>
+        <v>0.9946179803495412</v>
       </c>
       <c r="T13">
-        <v>1.001880933668528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.99787691261649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.024003622592169</v>
+        <v>0.5123396</v>
       </c>
       <c r="D14">
-        <v>0.8585719803706373</v>
+        <v>1.445007000000001</v>
       </c>
       <c r="E14">
-        <v>1.041452924960361</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="F14">
-        <v>1.024003622592169</v>
+        <v>0.7945476800000005</v>
       </c>
       <c r="G14">
-        <v>1.112777036505602</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="H14">
-        <v>0.9187852692934646</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="I14">
-        <v>1.036365664109581</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="J14">
-        <v>0.8585719803706373</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="K14">
-        <v>1.024003622592169</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="L14">
-        <v>1.041452924960361</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="M14">
-        <v>0.9500124526654989</v>
+        <v>1.325116825000001</v>
       </c>
       <c r="N14">
-        <v>0.9500124526654989</v>
+        <v>1.325116825000001</v>
       </c>
       <c r="O14">
-        <v>0.9396033915414875</v>
+        <v>1.365080216666668</v>
       </c>
       <c r="P14">
-        <v>0.974676175974389</v>
+        <v>1.135535050000001</v>
       </c>
       <c r="Q14">
-        <v>0.974676175974389</v>
+        <v>1.135535050000001</v>
       </c>
       <c r="R14">
-        <v>0.9870080376288342</v>
+        <v>1.040744162500001</v>
       </c>
       <c r="S14">
-        <v>0.9870080376288342</v>
+        <v>1.040744162500001</v>
       </c>
       <c r="T14">
-        <v>0.9986594163053025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.026416571666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.015334925193843</v>
+        <v>1.055856</v>
       </c>
       <c r="D15">
-        <v>0.9591919345468271</v>
+        <v>0.88627042</v>
       </c>
       <c r="E15">
-        <v>1.00761171154043</v>
+        <v>1.1248129</v>
       </c>
       <c r="F15">
-        <v>1.015334925193843</v>
+        <v>1.0550102</v>
       </c>
       <c r="G15">
-        <v>1.020170741794812</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H15">
-        <v>0.9785906152089123</v>
+        <v>1.0262848</v>
       </c>
       <c r="I15">
-        <v>1.009863379150939</v>
+        <v>1.1248129</v>
       </c>
       <c r="J15">
-        <v>0.9591919345468271</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K15">
-        <v>1.015334925193843</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>1.00761171154043</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>0.9834018230436283</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>0.9834018230436283</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>0.981798087098723</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>0.9940461904270333</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>0.9940461904270336</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>0.999368374118736</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>0.999368374118736</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.9984605512392942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999379112626189</v>
+        <v>1.055856</v>
       </c>
       <c r="D16">
-        <v>1.000085630505559</v>
+        <v>0.88627042</v>
       </c>
       <c r="E16">
-        <v>1.000001547117277</v>
+        <v>1.1248129</v>
       </c>
       <c r="F16">
-        <v>0.9999379112626189</v>
+        <v>1.0550102</v>
       </c>
       <c r="G16">
-        <v>1.000018087500562</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H16">
-        <v>1.000031340923626</v>
+        <v>1.0262848</v>
       </c>
       <c r="I16">
-        <v>0.9999829948436013</v>
+        <v>1.1248129</v>
       </c>
       <c r="J16">
-        <v>1.000085630505559</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K16">
-        <v>0.9999379112626189</v>
+        <v>1.1248129</v>
       </c>
       <c r="L16">
-        <v>1.000001547117277</v>
+        <v>1.0262848</v>
       </c>
       <c r="M16">
-        <v>1.000043588811418</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N16">
-        <v>1.000043588811418</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O16">
-        <v>1.000039506182154</v>
+        <v>0.88964224</v>
       </c>
       <c r="P16">
-        <v>1.000008362961818</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q16">
-        <v>1.000008362961818</v>
+        <v>0.9691564</v>
       </c>
       <c r="R16">
-        <v>0.9999907500370185</v>
+        <v>1.008070525</v>
       </c>
       <c r="S16">
-        <v>0.9999907500370185</v>
+        <v>1.008070525</v>
       </c>
       <c r="T16">
-        <v>1.000009585358874</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9997061612873858</v>
+        <v>1.4242359</v>
       </c>
       <c r="D17">
-        <v>1.001161599564797</v>
+        <v>0.71789376</v>
       </c>
       <c r="E17">
-        <v>0.999713793136797</v>
+        <v>1.0577791</v>
       </c>
       <c r="F17">
-        <v>0.9997061612873858</v>
+        <v>1.1242403</v>
       </c>
       <c r="G17">
-        <v>0.999249993744873</v>
+        <v>0.52871692</v>
       </c>
       <c r="H17">
-        <v>1.00063053252818</v>
+        <v>1.1515905</v>
       </c>
       <c r="I17">
-        <v>0.9997115686192783</v>
+        <v>1.0577791</v>
       </c>
       <c r="J17">
-        <v>1.001161599564797</v>
+        <v>0.52871692</v>
       </c>
       <c r="K17">
-        <v>0.9997061612873858</v>
+        <v>1.0577791</v>
       </c>
       <c r="L17">
-        <v>0.999713793136797</v>
+        <v>1.1515905</v>
       </c>
       <c r="M17">
-        <v>1.000437696350797</v>
+        <v>0.8401537100000001</v>
       </c>
       <c r="N17">
-        <v>1.000437696350797</v>
+        <v>0.8401537100000001</v>
       </c>
       <c r="O17">
-        <v>1.000501975076592</v>
+        <v>0.7994003933333333</v>
       </c>
       <c r="P17">
-        <v>1.00019385132966</v>
+        <v>0.9126955066666668</v>
       </c>
       <c r="Q17">
-        <v>1.00019385132966</v>
+        <v>0.9126955066666668</v>
       </c>
       <c r="R17">
-        <v>1.000071928819091</v>
+        <v>0.9489664050000002</v>
       </c>
       <c r="S17">
-        <v>1.000071928819091</v>
+        <v>0.9489664050000002</v>
       </c>
       <c r="T17">
-        <v>1.000028941480219</v>
+        <v>1.000742746666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9991111304489451</v>
+        <v>0.7870482147945207</v>
       </c>
       <c r="D18">
-        <v>1.003985143631104</v>
+        <v>1.162055473150685</v>
       </c>
       <c r="E18">
-        <v>0.9989487574123798</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="F18">
-        <v>0.9991111304489451</v>
+        <v>0.9268749736986306</v>
       </c>
       <c r="G18">
-        <v>0.9971900420712164</v>
+        <v>1.288145078082192</v>
       </c>
       <c r="H18">
-        <v>1.002215812836935</v>
+        <v>0.9207948827397261</v>
       </c>
       <c r="I18">
-        <v>0.998996097364347</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="J18">
-        <v>1.003985143631104</v>
+        <v>1.288145078082192</v>
       </c>
       <c r="K18">
-        <v>0.9991111304489451</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="L18">
-        <v>0.9989487574123798</v>
+        <v>0.9207948827397261</v>
       </c>
       <c r="M18">
-        <v>1.001466950521742</v>
+        <v>1.104469980410959</v>
       </c>
       <c r="N18">
-        <v>1.001466950521742</v>
+        <v>1.104469980410959</v>
       </c>
       <c r="O18">
-        <v>1.001716571293473</v>
+        <v>1.123665144657534</v>
       </c>
       <c r="P18">
-        <v>1.000681677164143</v>
+        <v>1.050196522191781</v>
       </c>
       <c r="Q18">
-        <v>1.000681677164143</v>
+        <v>1.050196522191781</v>
       </c>
       <c r="R18">
-        <v>1.000289040485344</v>
+        <v>1.023059793082192</v>
       </c>
       <c r="S18">
-        <v>1.000289040485344</v>
+        <v>1.023059793082192</v>
       </c>
       <c r="T18">
-        <v>1.000074497294155</v>
+        <v>1.00442803803653</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9980810720599085</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="D19">
-        <v>1.009245377003971</v>
+        <v>0.9699431852631578</v>
       </c>
       <c r="E19">
-        <v>0.9974839281339283</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="F19">
-        <v>0.9980810720599085</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="G19">
-        <v>0.9932450448495725</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="H19">
-        <v>1.005184906510019</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="I19">
-        <v>0.9976580228458722</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="J19">
-        <v>1.009245377003971</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="K19">
-        <v>0.9980810720599085</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L19">
-        <v>0.9974839281339283</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M19">
-        <v>1.003364652568949</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="N19">
-        <v>1.003364652568949</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="O19">
-        <v>1.003971403882639</v>
+        <v>0.9826911708771932</v>
       </c>
       <c r="P19">
-        <v>1.001603459065936</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="Q19">
-        <v>1.001603459065936</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="R19">
-        <v>1.000722862314429</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S19">
-        <v>1.000722862314429</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T19">
-        <v>1.000149725233879</v>
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="D20">
+        <v>0.9699431852631578</v>
+      </c>
+      <c r="E20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="F20">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="G20">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="H20">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="I20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="J20">
+        <v>0.9580039736842109</v>
+      </c>
+      <c r="K20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L20">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M20">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="N20">
+        <v>0.9890651636842107</v>
+      </c>
+      <c r="O20">
+        <v>0.9826911708771932</v>
+      </c>
+      <c r="P20">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="Q20">
+        <v>0.9906089171929825</v>
+      </c>
+      <c r="R20">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S20">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T20">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.112777036505603</v>
+      </c>
+      <c r="D21">
+        <v>0.9187852692934646</v>
+      </c>
+      <c r="E21">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="F21">
+        <v>1.036365664109581</v>
+      </c>
+      <c r="G21">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="H21">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="I21">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="J21">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="K21">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="L21">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="M21">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="N21">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="O21">
+        <v>0.9396033915414875</v>
+      </c>
+      <c r="P21">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="Q21">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="R21">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="S21">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="T21">
+        <v>0.9986594163053025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.020170741794812</v>
+      </c>
+      <c r="D22">
+        <v>0.9785906152089123</v>
+      </c>
+      <c r="E22">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="F22">
+        <v>1.009863379150939</v>
+      </c>
+      <c r="G22">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="H22">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="I22">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="J22">
+        <v>0.9591919345468267</v>
+      </c>
+      <c r="K22">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="L22">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="M22">
+        <v>0.9834018230436282</v>
+      </c>
+      <c r="N22">
+        <v>0.9834018230436282</v>
+      </c>
+      <c r="O22">
+        <v>0.981798087098723</v>
+      </c>
+      <c r="P22">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="Q22">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="R22">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="S22">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="T22">
+        <v>0.9984605512392939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.005576267777883</v>
+      </c>
+      <c r="D23">
+        <v>0.9641860394047039</v>
+      </c>
+      <c r="E23">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="F23">
+        <v>1.017965533339757</v>
+      </c>
+      <c r="G23">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="H23">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="I23">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="J23">
+        <v>0.9167794763808607</v>
+      </c>
+      <c r="K23">
+        <v>1.04932377377107</v>
+      </c>
+      <c r="L23">
+        <v>1.005060901835656</v>
+      </c>
+      <c r="M23">
+        <v>0.9609201891082582</v>
+      </c>
+      <c r="N23">
+        <v>0.9609201891082582</v>
+      </c>
+      <c r="O23">
+        <v>0.9620088058737402</v>
+      </c>
+      <c r="P23">
+        <v>0.9903880506625288</v>
+      </c>
+      <c r="Q23">
+        <v>0.9903880506625288</v>
+      </c>
+      <c r="R23">
+        <v>1.005121981439664</v>
+      </c>
+      <c r="S23">
+        <v>1.005121981439664</v>
+      </c>
+      <c r="T23">
+        <v>0.9931486654183216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.026029837573964</v>
+      </c>
+      <c r="D24">
+        <v>0.9916196386969702</v>
+      </c>
+      <c r="E24">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="F24">
+        <v>1.003141381619977</v>
+      </c>
+      <c r="G24">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="H24">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="I24">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="J24">
+        <v>0.9920795375638961</v>
+      </c>
+      <c r="K24">
+        <v>0.9897720585145819</v>
+      </c>
+      <c r="L24">
+        <v>1.008643148041779</v>
+      </c>
+      <c r="M24">
+        <v>1.000361342802837</v>
+      </c>
+      <c r="N24">
+        <v>1.000361342802837</v>
+      </c>
+      <c r="O24">
+        <v>0.997447441434215</v>
+      </c>
+      <c r="P24">
+        <v>0.9968315813734189</v>
+      </c>
+      <c r="Q24">
+        <v>0.9968315813734189</v>
+      </c>
+      <c r="R24">
+        <v>0.9950667006587096</v>
+      </c>
+      <c r="S24">
+        <v>0.9950667006587096</v>
+      </c>
+      <c r="T24">
+        <v>1.001880933668528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.112777036505602</v>
+      </c>
+      <c r="D25">
+        <v>0.9187852692934645</v>
+      </c>
+      <c r="E25">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="F25">
+        <v>1.036365664109581</v>
+      </c>
+      <c r="G25">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="H25">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="I25">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="J25">
+        <v>0.8585719803706373</v>
+      </c>
+      <c r="K25">
+        <v>1.024003622592169</v>
+      </c>
+      <c r="L25">
+        <v>1.041452924960361</v>
+      </c>
+      <c r="M25">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="N25">
+        <v>0.9500124526654989</v>
+      </c>
+      <c r="O25">
+        <v>0.9396033915414875</v>
+      </c>
+      <c r="P25">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="Q25">
+        <v>0.974676175974389</v>
+      </c>
+      <c r="R25">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="S25">
+        <v>0.9870080376288342</v>
+      </c>
+      <c r="T25">
+        <v>0.9986594163053025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.020170741794812</v>
+      </c>
+      <c r="D26">
+        <v>0.9785906152089123</v>
+      </c>
+      <c r="E26">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="F26">
+        <v>1.009863379150939</v>
+      </c>
+      <c r="G26">
+        <v>0.9591919345468269</v>
+      </c>
+      <c r="H26">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="I26">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="J26">
+        <v>0.9591919345468269</v>
+      </c>
+      <c r="K26">
+        <v>1.015334925193843</v>
+      </c>
+      <c r="L26">
+        <v>1.00761171154043</v>
+      </c>
+      <c r="M26">
+        <v>0.9834018230436283</v>
+      </c>
+      <c r="N26">
+        <v>0.9834018230436283</v>
+      </c>
+      <c r="O26">
+        <v>0.981798087098723</v>
+      </c>
+      <c r="P26">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="Q26">
+        <v>0.9940461904270332</v>
+      </c>
+      <c r="R26">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="S26">
+        <v>0.9993683741187358</v>
+      </c>
+      <c r="T26">
+        <v>0.9984605512392939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="D27">
+        <v>1.026461315666667</v>
+      </c>
+      <c r="E27">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="F27">
+        <v>0.9880853578000061</v>
+      </c>
+      <c r="G27">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="H27">
+        <v>0.9877979911755793</v>
+      </c>
+      <c r="I27">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="J27">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="K27">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="L27">
+        <v>0.9877979911755793</v>
+      </c>
+      <c r="M27">
+        <v>1.01745566441216</v>
+      </c>
+      <c r="N27">
+        <v>1.01745566441216</v>
+      </c>
+      <c r="O27">
+        <v>1.020457548163662</v>
+      </c>
+      <c r="P27">
+        <v>1.007898313004854</v>
+      </c>
+      <c r="Q27">
+        <v>1.007898313004854</v>
+      </c>
+      <c r="R27">
+        <v>1.003119637301201</v>
+      </c>
+      <c r="S27">
+        <v>1.003119637301201</v>
+      </c>
+      <c r="T27">
+        <v>1.000823668103874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.032049873525327</v>
+      </c>
+      <c r="D28">
+        <v>0.9782004400740404</v>
+      </c>
+      <c r="E28">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="F28">
+        <v>1.0096322236405</v>
+      </c>
+      <c r="G28">
+        <v>0.9632384802184352</v>
+      </c>
+      <c r="H28">
+        <v>1.011493539236611</v>
+      </c>
+      <c r="I28">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="J28">
+        <v>0.9632384802184352</v>
+      </c>
+      <c r="K28">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="L28">
+        <v>1.011493539236611</v>
+      </c>
+      <c r="M28">
+        <v>0.987366009727523</v>
+      </c>
+      <c r="N28">
+        <v>0.987366009727523</v>
+      </c>
+      <c r="O28">
+        <v>0.9843108198430288</v>
+      </c>
+      <c r="P28">
+        <v>0.9932803977776129</v>
+      </c>
+      <c r="Q28">
+        <v>0.9932803977776129</v>
+      </c>
+      <c r="R28">
+        <v>0.9962375918026578</v>
+      </c>
+      <c r="S28">
+        <v>0.9962375918026578</v>
+      </c>
+      <c r="T28">
+        <v>0.9999539550954509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.132898439554143</v>
+      </c>
+      <c r="D29">
+        <v>0.8978294678823867</v>
+      </c>
+      <c r="E29">
+        <v>1.038263860601204</v>
+      </c>
+      <c r="F29">
+        <v>1.046098324375124</v>
+      </c>
+      <c r="G29">
+        <v>0.8181412996605194</v>
+      </c>
+      <c r="H29">
+        <v>1.049322333363729</v>
+      </c>
+      <c r="I29">
+        <v>1.038263860601204</v>
+      </c>
+      <c r="J29">
+        <v>0.8181412996605194</v>
+      </c>
+      <c r="K29">
+        <v>1.038263860601204</v>
+      </c>
+      <c r="L29">
+        <v>1.049322333363729</v>
+      </c>
+      <c r="M29">
+        <v>0.9337318165121242</v>
+      </c>
+      <c r="N29">
+        <v>0.9337318165121242</v>
+      </c>
+      <c r="O29">
+        <v>0.9217643669688784</v>
+      </c>
+      <c r="P29">
+        <v>0.9685758312084841</v>
+      </c>
+      <c r="Q29">
+        <v>0.9685758312084841</v>
+      </c>
+      <c r="R29">
+        <v>0.985997838556664</v>
+      </c>
+      <c r="S29">
+        <v>0.985997838556664</v>
+      </c>
+      <c r="T29">
+        <v>0.9970922875728511</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.012683271318435</v>
+        <v>0.927124465430596</v>
       </c>
       <c r="D4">
-        <v>0.984164676105272</v>
+        <v>1.064596663177761</v>
       </c>
       <c r="E4">
-        <v>1.012985846721062</v>
+        <v>0.9662054105346166</v>
       </c>
       <c r="F4">
-        <v>1.007465160176993</v>
+        <v>0.9703271516546633</v>
       </c>
       <c r="G4">
-        <v>0.9682540596602239</v>
+        <v>1.120528314708173</v>
       </c>
       <c r="H4">
-        <v>1.005193275121109</v>
+        <v>0.9720233403264184</v>
       </c>
       <c r="I4">
-        <v>1.012985846721062</v>
+        <v>0.9662054105346166</v>
       </c>
       <c r="J4">
-        <v>0.9682540596602239</v>
+        <v>1.120528314708173</v>
       </c>
       <c r="K4">
-        <v>1.012985846721062</v>
+        <v>0.9662054105346166</v>
       </c>
       <c r="L4">
-        <v>1.005193275121109</v>
+        <v>0.9720233403264184</v>
       </c>
       <c r="M4">
-        <v>0.9867236673906663</v>
+        <v>1.046275827517296</v>
       </c>
       <c r="N4">
-        <v>0.9867236673906663</v>
+        <v>1.046275827517296</v>
       </c>
       <c r="O4">
-        <v>0.9858706702955349</v>
+        <v>1.052382772737451</v>
       </c>
       <c r="P4">
-        <v>0.9954777271674647</v>
+        <v>1.019585688523069</v>
       </c>
       <c r="Q4">
-        <v>0.9954777271674647</v>
+        <v>1.019585688523069</v>
       </c>
       <c r="R4">
-        <v>0.999854757055864</v>
+        <v>1.006240619025956</v>
       </c>
       <c r="S4">
-        <v>0.999854757055864</v>
+        <v>1.006240619025956</v>
       </c>
       <c r="T4">
-        <v>0.9984577148505157</v>
+        <v>1.003467557638705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9161138507564835</v>
+        <v>1.104252146326307</v>
       </c>
       <c r="D5">
-        <v>1.074154028587896</v>
+        <v>0.9340076655515488</v>
       </c>
       <c r="E5">
-        <v>0.9614657742074911</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="F5">
-        <v>0.9659332789913531</v>
+        <v>1.028789320390842</v>
       </c>
       <c r="G5">
-        <v>1.138348853414988</v>
+        <v>0.8925068903756429</v>
       </c>
       <c r="H5">
-        <v>0.9677717573847263</v>
+        <v>1.03678427652438</v>
       </c>
       <c r="I5">
-        <v>0.9614657742074911</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="J5">
-        <v>1.138348853414988</v>
+        <v>0.8925068903756429</v>
       </c>
       <c r="K5">
-        <v>0.9614657742074911</v>
+        <v>1.009361524551429</v>
       </c>
       <c r="L5">
-        <v>0.9677717573847263</v>
+        <v>1.03678427652438</v>
       </c>
       <c r="M5">
-        <v>1.053060305399857</v>
+        <v>0.9646455834500116</v>
       </c>
       <c r="N5">
-        <v>1.053060305399857</v>
+        <v>0.9646455834500116</v>
       </c>
       <c r="O5">
-        <v>1.060091546462537</v>
+        <v>0.954432944150524</v>
       </c>
       <c r="P5">
-        <v>1.022528795002402</v>
+        <v>0.9795508971504843</v>
       </c>
       <c r="Q5">
-        <v>1.022528795002402</v>
+        <v>0.9795508971504843</v>
       </c>
       <c r="R5">
-        <v>1.007263039803674</v>
+        <v>0.9870035540007205</v>
       </c>
       <c r="S5">
-        <v>1.007263039803674</v>
+        <v>0.9870035540007205</v>
       </c>
       <c r="T5">
-        <v>1.003964590557156</v>
+        <v>1.000950303953358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7207833231485085</v>
+        <v>1.012683271318435</v>
       </c>
       <c r="D6">
-        <v>1.253773266741222</v>
+        <v>0.984164676105272</v>
       </c>
       <c r="E6">
-        <v>0.8619214822904205</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="F6">
-        <v>0.8829148390083386</v>
+        <v>1.007465160176993</v>
       </c>
       <c r="G6">
-        <v>1.478280011773282</v>
+        <v>0.9682540596602239</v>
       </c>
       <c r="H6">
-        <v>0.8915540838676829</v>
+        <v>1.005193275121109</v>
       </c>
       <c r="I6">
-        <v>0.8619214822904205</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="J6">
-        <v>1.478280011773282</v>
+        <v>0.9682540596602239</v>
       </c>
       <c r="K6">
-        <v>0.8619214822904205</v>
+        <v>1.012985846721062</v>
       </c>
       <c r="L6">
-        <v>0.8915540838676829</v>
+        <v>1.005193275121109</v>
       </c>
       <c r="M6">
-        <v>1.184917047820482</v>
+        <v>0.9867236673906663</v>
       </c>
       <c r="N6">
-        <v>1.184917047820482</v>
+        <v>0.9867236673906663</v>
       </c>
       <c r="O6">
-        <v>1.207869120794062</v>
+        <v>0.9858706702955349</v>
       </c>
       <c r="P6">
-        <v>1.077251859310462</v>
+        <v>0.9954777271674647</v>
       </c>
       <c r="Q6">
-        <v>1.077251859310462</v>
+        <v>0.9954777271674647</v>
       </c>
       <c r="R6">
-        <v>1.023419265055451</v>
+        <v>0.999854757055864</v>
       </c>
       <c r="S6">
-        <v>1.023419265055451</v>
+        <v>0.999854757055864</v>
       </c>
       <c r="T6">
-        <v>1.014871167804909</v>
+        <v>0.9984577148505157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9903724921073769</v>
+        <v>0.9161138507564835</v>
       </c>
       <c r="D7">
-        <v>1.00742756503678</v>
+        <v>1.074154028587896</v>
       </c>
       <c r="E7">
-        <v>0.9972053295824188</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="F7">
-        <v>0.9966434719997015</v>
+        <v>0.9659332789913531</v>
       </c>
       <c r="G7">
-        <v>1.013263446741493</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="H7">
-        <v>0.9964122542259672</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="I7">
-        <v>0.9972053295824188</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="J7">
-        <v>1.013263446741493</v>
+        <v>1.138348853414988</v>
       </c>
       <c r="K7">
-        <v>0.9972053295824188</v>
+        <v>0.9614657742074911</v>
       </c>
       <c r="L7">
-        <v>0.9964122542259672</v>
+        <v>0.9677717573847263</v>
       </c>
       <c r="M7">
-        <v>1.00483785048373</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="N7">
-        <v>1.00483785048373</v>
+        <v>1.053060305399857</v>
       </c>
       <c r="O7">
-        <v>1.00570108866808</v>
+        <v>1.060091546462537</v>
       </c>
       <c r="P7">
-        <v>1.00229367684996</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="Q7">
-        <v>1.00229367684996</v>
+        <v>1.022528795002402</v>
       </c>
       <c r="R7">
-        <v>1.001021590033074</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="S7">
-        <v>1.001021590033074</v>
+        <v>1.007263039803674</v>
       </c>
       <c r="T7">
-        <v>1.000220759948956</v>
+        <v>1.003964590557156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999249993744873</v>
+        <v>0.7207833231485085</v>
       </c>
       <c r="D8">
-        <v>1.00063053252818</v>
+        <v>1.253773266741222</v>
       </c>
       <c r="E8">
-        <v>0.9997061612873858</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="F8">
-        <v>0.9997115686192783</v>
+        <v>0.8829148390083386</v>
       </c>
       <c r="G8">
-        <v>1.001161599564797</v>
+        <v>1.478280011773282</v>
       </c>
       <c r="H8">
-        <v>0.9997137931367969</v>
+        <v>0.8915540838676829</v>
       </c>
       <c r="I8">
-        <v>0.9997061612873858</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="J8">
-        <v>1.001161599564797</v>
+        <v>1.478280011773282</v>
       </c>
       <c r="K8">
-        <v>0.9997061612873858</v>
+        <v>0.8619214822904205</v>
       </c>
       <c r="L8">
-        <v>0.9997137931367969</v>
+        <v>0.8915540838676829</v>
       </c>
       <c r="M8">
-        <v>1.000437696350797</v>
+        <v>1.184917047820482</v>
       </c>
       <c r="N8">
-        <v>1.000437696350797</v>
+        <v>1.184917047820482</v>
       </c>
       <c r="O8">
-        <v>1.000501975076592</v>
+        <v>1.207869120794062</v>
       </c>
       <c r="P8">
-        <v>1.00019385132966</v>
+        <v>1.077251859310462</v>
       </c>
       <c r="Q8">
-        <v>1.00019385132966</v>
+        <v>1.077251859310462</v>
       </c>
       <c r="R8">
-        <v>1.000071928819091</v>
+        <v>1.023419265055451</v>
       </c>
       <c r="S8">
-        <v>1.000071928819091</v>
+        <v>1.023419265055451</v>
       </c>
       <c r="T8">
-        <v>1.000028941480219</v>
+        <v>1.014871167804909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9820018790682956</v>
+        <v>0.9903724921073769</v>
       </c>
       <c r="D9">
-        <v>1.013878839255391</v>
+        <v>1.00742756503678</v>
       </c>
       <c r="E9">
-        <v>0.9947952176763851</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="F9">
-        <v>0.9937263055473855</v>
+        <v>0.9966434719997015</v>
       </c>
       <c r="G9">
-        <v>1.024794949591065</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="H9">
-        <v>0.9932864228184392</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="I9">
-        <v>0.9947952176763851</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="J9">
-        <v>1.024794949591065</v>
+        <v>1.013263446741493</v>
       </c>
       <c r="K9">
-        <v>0.9947952176763851</v>
+        <v>0.9972053295824188</v>
       </c>
       <c r="L9">
-        <v>0.9932864228184392</v>
+        <v>0.9964122542259672</v>
       </c>
       <c r="M9">
-        <v>1.009040686204752</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="N9">
-        <v>1.009040686204752</v>
+        <v>1.00483785048373</v>
       </c>
       <c r="O9">
-        <v>1.010653403888298</v>
+        <v>1.00570108866808</v>
       </c>
       <c r="P9">
-        <v>1.004292196695296</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="Q9">
-        <v>1.004292196695296</v>
+        <v>1.00229367684996</v>
       </c>
       <c r="R9">
-        <v>1.001917951940569</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="S9">
-        <v>1.001917951940569</v>
+        <v>1.001021590033074</v>
       </c>
       <c r="T9">
-        <v>1.000413935659493</v>
+        <v>1.000220759948956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7171022072079563</v>
+        <v>0.999249993744873</v>
       </c>
       <c r="D10">
-        <v>1.257554934288631</v>
+        <v>1.00063053252818</v>
       </c>
       <c r="E10">
-        <v>0.8595390796829057</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="F10">
-        <v>0.881127338654344</v>
+        <v>0.9997115686192783</v>
       </c>
       <c r="G10">
-        <v>1.485786731436507</v>
+        <v>1.001161599564797</v>
       </c>
       <c r="H10">
-        <v>0.8900113980690032</v>
+        <v>0.9997137931367969</v>
       </c>
       <c r="I10">
-        <v>0.8595390796829057</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="J10">
-        <v>1.485786731436507</v>
+        <v>1.001161599564797</v>
       </c>
       <c r="K10">
-        <v>0.8595390796829057</v>
+        <v>0.9997061612873858</v>
       </c>
       <c r="L10">
-        <v>0.8900113980690032</v>
+        <v>0.9997137931367969</v>
       </c>
       <c r="M10">
-        <v>1.187899064752755</v>
+        <v>1.000437696350797</v>
       </c>
       <c r="N10">
-        <v>1.187899064752755</v>
+        <v>1.000437696350797</v>
       </c>
       <c r="O10">
-        <v>1.21111768793138</v>
+        <v>1.000501975076592</v>
       </c>
       <c r="P10">
-        <v>1.078445736396138</v>
+        <v>1.00019385132966</v>
       </c>
       <c r="Q10">
-        <v>1.078445736396138</v>
+        <v>1.00019385132966</v>
       </c>
       <c r="R10">
-        <v>1.02371907221783</v>
+        <v>1.000071928819091</v>
       </c>
       <c r="S10">
-        <v>1.02371907221783</v>
+        <v>1.000071928819091</v>
       </c>
       <c r="T10">
-        <v>1.015186948223224</v>
+        <v>1.000028941480219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9800442172474371</v>
+        <v>0.9820018790682956</v>
       </c>
       <c r="D11">
-        <v>1.00587431029675</v>
+        <v>1.013878839255391</v>
       </c>
       <c r="E11">
-        <v>1.008518207413587</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="F11">
-        <v>0.9979069908818856</v>
+        <v>0.9937263055473855</v>
       </c>
       <c r="G11">
-        <v>1.004503526449884</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="H11">
-        <v>0.9935402394670781</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="I11">
-        <v>1.008518207413587</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="J11">
-        <v>1.004503526449884</v>
+        <v>1.024794949591065</v>
       </c>
       <c r="K11">
-        <v>1.008518207413587</v>
+        <v>0.9947952176763851</v>
       </c>
       <c r="L11">
-        <v>0.9935402394670781</v>
+        <v>0.9932864228184392</v>
       </c>
       <c r="M11">
-        <v>0.9990218829584812</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="N11">
-        <v>0.9990218829584812</v>
+        <v>1.009040686204752</v>
       </c>
       <c r="O11">
-        <v>1.001306025404571</v>
+        <v>1.010653403888298</v>
       </c>
       <c r="P11">
-        <v>1.002187324443516</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="Q11">
-        <v>1.002187324443516</v>
+        <v>1.004292196695296</v>
       </c>
       <c r="R11">
-        <v>1.003770045186034</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="S11">
-        <v>1.003770045186034</v>
+        <v>1.001917951940569</v>
       </c>
       <c r="T11">
-        <v>0.9983979152927703</v>
+        <v>1.000413935659493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9164604695052616</v>
+        <v>0.7171022072079563</v>
       </c>
       <c r="D12">
-        <v>1.07672714950526</v>
+        <v>1.257554934288631</v>
       </c>
       <c r="E12">
-        <v>0.9575054659999953</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="F12">
-        <v>0.9645556965473668</v>
+        <v>0.881127338654344</v>
       </c>
       <c r="G12">
-        <v>1.145061507073684</v>
+        <v>1.485786731436507</v>
       </c>
       <c r="H12">
-        <v>0.9674570230421088</v>
+        <v>0.8900113980690032</v>
       </c>
       <c r="I12">
-        <v>0.9575054659999953</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="J12">
-        <v>1.145061507073684</v>
+        <v>1.485786731436507</v>
       </c>
       <c r="K12">
-        <v>0.9575054659999953</v>
+        <v>0.8595390796829057</v>
       </c>
       <c r="L12">
-        <v>0.9674570230421088</v>
+        <v>0.8900113980690032</v>
       </c>
       <c r="M12">
-        <v>1.056259265057896</v>
+        <v>1.187899064752755</v>
       </c>
       <c r="N12">
-        <v>1.056259265057896</v>
+        <v>1.187899064752755</v>
       </c>
       <c r="O12">
-        <v>1.063081893207017</v>
+        <v>1.21111768793138</v>
       </c>
       <c r="P12">
-        <v>1.023341332038596</v>
+        <v>1.078445736396138</v>
       </c>
       <c r="Q12">
-        <v>1.023341332038596</v>
+        <v>1.078445736396138</v>
       </c>
       <c r="R12">
-        <v>1.006882365528946</v>
+        <v>1.02371907221783</v>
       </c>
       <c r="S12">
-        <v>1.006882365528946</v>
+        <v>1.02371907221783</v>
       </c>
       <c r="T12">
-        <v>1.004627885278946</v>
+        <v>1.015186948223224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.060401178490857</v>
+        <v>0.9800442172474371</v>
       </c>
       <c r="D13">
-        <v>0.9494021689235946</v>
+        <v>1.00587431029675</v>
       </c>
       <c r="E13">
-        <v>1.024009274748076</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="F13">
-        <v>1.0229954816344</v>
+        <v>0.9979069908818856</v>
       </c>
       <c r="G13">
-        <v>0.9078750946616826</v>
+        <v>1.004503526449884</v>
       </c>
       <c r="H13">
-        <v>1.02257827724033</v>
+        <v>0.9935402394670781</v>
       </c>
       <c r="I13">
-        <v>1.024009274748076</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="J13">
-        <v>0.9078750946616826</v>
+        <v>1.004503526449884</v>
       </c>
       <c r="K13">
-        <v>1.024009274748076</v>
+        <v>1.008518207413587</v>
       </c>
       <c r="L13">
-        <v>1.02257827724033</v>
+        <v>0.9935402394670781</v>
       </c>
       <c r="M13">
-        <v>0.9652266859510064</v>
+        <v>0.9990218829584812</v>
       </c>
       <c r="N13">
-        <v>0.9652266859510064</v>
+        <v>0.9990218829584812</v>
       </c>
       <c r="O13">
-        <v>0.9599518469418692</v>
+        <v>1.001306025404571</v>
       </c>
       <c r="P13">
-        <v>0.9848208822166962</v>
+        <v>1.002187324443516</v>
       </c>
       <c r="Q13">
-        <v>0.9848208822166962</v>
+        <v>1.002187324443516</v>
       </c>
       <c r="R13">
-        <v>0.9946179803495412</v>
+        <v>1.003770045186034</v>
       </c>
       <c r="S13">
-        <v>0.9946179803495412</v>
+        <v>1.003770045186034</v>
       </c>
       <c r="T13">
-        <v>0.99787691261649</v>
+        <v>0.9983979152927703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5123396</v>
+        <v>0.9164604695052616</v>
       </c>
       <c r="D14">
-        <v>1.445007000000001</v>
+        <v>1.07672714950526</v>
       </c>
       <c r="E14">
-        <v>0.7563715000000001</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="F14">
-        <v>0.7945476800000005</v>
+        <v>0.9645556965473668</v>
       </c>
       <c r="G14">
-        <v>1.839975600000002</v>
+        <v>1.145061507073684</v>
       </c>
       <c r="H14">
-        <v>0.8102580500000012</v>
+        <v>0.9674570230421088</v>
       </c>
       <c r="I14">
-        <v>0.7563715000000001</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="J14">
-        <v>1.839975600000002</v>
+        <v>1.145061507073684</v>
       </c>
       <c r="K14">
-        <v>0.7563715000000001</v>
+        <v>0.9575054659999953</v>
       </c>
       <c r="L14">
-        <v>0.8102580500000012</v>
+        <v>0.9674570230421088</v>
       </c>
       <c r="M14">
-        <v>1.325116825000001</v>
+        <v>1.056259265057896</v>
       </c>
       <c r="N14">
-        <v>1.325116825000001</v>
+        <v>1.056259265057896</v>
       </c>
       <c r="O14">
-        <v>1.365080216666668</v>
+        <v>1.063081893207017</v>
       </c>
       <c r="P14">
-        <v>1.135535050000001</v>
+        <v>1.023341332038596</v>
       </c>
       <c r="Q14">
-        <v>1.135535050000001</v>
+        <v>1.023341332038596</v>
       </c>
       <c r="R14">
-        <v>1.040744162500001</v>
+        <v>1.006882365528946</v>
       </c>
       <c r="S14">
-        <v>1.040744162500001</v>
+        <v>1.006882365528946</v>
       </c>
       <c r="T14">
-        <v>1.026416571666667</v>
+        <v>1.004627885278946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.055856</v>
+        <v>1.060401178490857</v>
       </c>
       <c r="D15">
-        <v>0.88627042</v>
+        <v>0.9494021689235946</v>
       </c>
       <c r="E15">
-        <v>1.1248129</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="F15">
-        <v>1.0550102</v>
+        <v>1.0229954816344</v>
       </c>
       <c r="G15">
-        <v>0.7563714999999999</v>
+        <v>0.9078750946616826</v>
       </c>
       <c r="H15">
-        <v>1.0262848</v>
+        <v>1.02257827724033</v>
       </c>
       <c r="I15">
-        <v>1.1248129</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="J15">
-        <v>0.7563714999999999</v>
+        <v>0.9078750946616826</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>1.024009274748076</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>1.02257827724033</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>0.9652266859510064</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>0.9652266859510064</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>0.9599518469418692</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>0.9848208822166962</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>0.9848208822166962</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>0.9946179803495412</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>0.9946179803495412</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>0.99787691261649</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.055856</v>
+        <v>0.5123396</v>
       </c>
       <c r="D16">
-        <v>0.88627042</v>
+        <v>1.445007000000001</v>
       </c>
       <c r="E16">
-        <v>1.1248129</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="F16">
-        <v>1.0550102</v>
+        <v>0.7945476800000005</v>
       </c>
       <c r="G16">
-        <v>0.7563714999999999</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="H16">
-        <v>1.0262848</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="I16">
-        <v>1.1248129</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="J16">
-        <v>0.7563714999999999</v>
+        <v>1.839975600000002</v>
       </c>
       <c r="K16">
-        <v>1.1248129</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="L16">
-        <v>1.0262848</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="M16">
-        <v>0.8913281499999999</v>
+        <v>1.325116825000001</v>
       </c>
       <c r="N16">
-        <v>0.8913281499999999</v>
+        <v>1.325116825000001</v>
       </c>
       <c r="O16">
-        <v>0.88964224</v>
+        <v>1.365080216666668</v>
       </c>
       <c r="P16">
-        <v>0.9691563999999998</v>
+        <v>1.135535050000001</v>
       </c>
       <c r="Q16">
-        <v>0.9691564</v>
+        <v>1.135535050000001</v>
       </c>
       <c r="R16">
-        <v>1.008070525</v>
+        <v>1.040744162500001</v>
       </c>
       <c r="S16">
-        <v>1.008070525</v>
+        <v>1.040744162500001</v>
       </c>
       <c r="T16">
-        <v>0.9841009700000001</v>
+        <v>1.026416571666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.4242359</v>
+        <v>1.055856</v>
       </c>
       <c r="D17">
-        <v>0.71789376</v>
+        <v>0.88627042</v>
       </c>
       <c r="E17">
-        <v>1.0577791</v>
+        <v>1.1248129</v>
       </c>
       <c r="F17">
-        <v>1.1242403</v>
+        <v>1.0550102</v>
       </c>
       <c r="G17">
-        <v>0.52871692</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H17">
-        <v>1.1515905</v>
+        <v>1.0262848</v>
       </c>
       <c r="I17">
-        <v>1.0577791</v>
+        <v>1.1248129</v>
       </c>
       <c r="J17">
-        <v>0.52871692</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K17">
-        <v>1.0577791</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>1.1515905</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.8401537100000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.8401537100000001</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.7994003933333333</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.9126955066666668</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.9126955066666668</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.9489664050000002</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.9489664050000002</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>1.000742746666667</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7870482147945207</v>
+        <v>1.055856</v>
       </c>
       <c r="D18">
-        <v>1.162055473150685</v>
+        <v>0.88627042</v>
       </c>
       <c r="E18">
-        <v>0.9416496057534244</v>
+        <v>1.1248129</v>
       </c>
       <c r="F18">
-        <v>0.9268749736986306</v>
+        <v>1.0550102</v>
       </c>
       <c r="G18">
-        <v>1.288145078082192</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H18">
-        <v>0.9207948827397261</v>
+        <v>1.0262848</v>
       </c>
       <c r="I18">
-        <v>0.9416496057534244</v>
+        <v>1.1248129</v>
       </c>
       <c r="J18">
-        <v>1.288145078082192</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K18">
-        <v>0.9416496057534244</v>
+        <v>1.1248129</v>
       </c>
       <c r="L18">
-        <v>0.9207948827397261</v>
+        <v>1.0262848</v>
       </c>
       <c r="M18">
-        <v>1.104469980410959</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N18">
-        <v>1.104469980410959</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O18">
-        <v>1.123665144657534</v>
+        <v>0.88964224</v>
       </c>
       <c r="P18">
-        <v>1.050196522191781</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q18">
-        <v>1.050196522191781</v>
+        <v>0.9691564</v>
       </c>
       <c r="R18">
-        <v>1.023059793082192</v>
+        <v>1.008070525</v>
       </c>
       <c r="S18">
-        <v>1.023059793082192</v>
+        <v>1.008070525</v>
       </c>
       <c r="T18">
-        <v>1.00442803803653</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.060209326842105</v>
+        <v>1.4242359</v>
       </c>
       <c r="D19">
-        <v>0.9699431852631578</v>
+        <v>0.71789376</v>
       </c>
       <c r="E19">
-        <v>0.9936964242105264</v>
+        <v>1.0577791</v>
       </c>
       <c r="F19">
-        <v>1.012420848421053</v>
+        <v>1.1242403</v>
       </c>
       <c r="G19">
-        <v>0.9580039736842109</v>
+        <v>0.52871692</v>
       </c>
       <c r="H19">
-        <v>1.02012635368421</v>
+        <v>1.1515905</v>
       </c>
       <c r="I19">
-        <v>0.9936964242105264</v>
+        <v>1.0577791</v>
       </c>
       <c r="J19">
-        <v>0.9580039736842109</v>
+        <v>0.52871692</v>
       </c>
       <c r="K19">
-        <v>0.9936964242105264</v>
+        <v>1.0577791</v>
       </c>
       <c r="L19">
-        <v>1.02012635368421</v>
+        <v>1.1515905</v>
       </c>
       <c r="M19">
-        <v>0.9890651636842107</v>
+        <v>0.8401537100000001</v>
       </c>
       <c r="N19">
-        <v>0.9890651636842107</v>
+        <v>0.8401537100000001</v>
       </c>
       <c r="O19">
-        <v>0.9826911708771932</v>
+        <v>0.7994003933333333</v>
       </c>
       <c r="P19">
-        <v>0.9906089171929825</v>
+        <v>0.9126955066666668</v>
       </c>
       <c r="Q19">
-        <v>0.9906089171929825</v>
+        <v>0.9126955066666668</v>
       </c>
       <c r="R19">
-        <v>0.9913807939473684</v>
+        <v>0.9489664050000002</v>
       </c>
       <c r="S19">
-        <v>0.9913807939473684</v>
+        <v>0.9489664050000002</v>
       </c>
       <c r="T19">
-        <v>1.002400018684211</v>
+        <v>1.000742746666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.060209326842105</v>
+        <v>0.7870482147945207</v>
       </c>
       <c r="D20">
-        <v>0.9699431852631578</v>
+        <v>1.162055473150685</v>
       </c>
       <c r="E20">
-        <v>0.9936964242105264</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="F20">
-        <v>1.012420848421053</v>
+        <v>0.9268749736986306</v>
       </c>
       <c r="G20">
-        <v>0.9580039736842109</v>
+        <v>1.288145078082192</v>
       </c>
       <c r="H20">
-        <v>1.02012635368421</v>
+        <v>0.9207948827397261</v>
       </c>
       <c r="I20">
-        <v>0.9936964242105264</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="J20">
-        <v>0.9580039736842109</v>
+        <v>1.288145078082192</v>
       </c>
       <c r="K20">
-        <v>0.9936964242105264</v>
+        <v>0.9416496057534244</v>
       </c>
       <c r="L20">
-        <v>1.02012635368421</v>
+        <v>0.9207948827397261</v>
       </c>
       <c r="M20">
-        <v>0.9890651636842107</v>
+        <v>1.104469980410959</v>
       </c>
       <c r="N20">
-        <v>0.9890651636842107</v>
+        <v>1.104469980410959</v>
       </c>
       <c r="O20">
-        <v>0.9826911708771932</v>
+        <v>1.123665144657534</v>
       </c>
       <c r="P20">
-        <v>0.9906089171929825</v>
+        <v>1.050196522191781</v>
       </c>
       <c r="Q20">
-        <v>0.9906089171929825</v>
+        <v>1.050196522191781</v>
       </c>
       <c r="R20">
-        <v>0.9913807939473684</v>
+        <v>1.023059793082192</v>
       </c>
       <c r="S20">
-        <v>0.9913807939473684</v>
+        <v>1.023059793082192</v>
       </c>
       <c r="T20">
-        <v>1.002400018684211</v>
+        <v>1.00442803803653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.112777036505603</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="D21">
-        <v>0.9187852692934646</v>
+        <v>0.9699431852631578</v>
       </c>
       <c r="E21">
-        <v>1.024003622592169</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="F21">
-        <v>1.036365664109581</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="G21">
-        <v>0.8585719803706373</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="H21">
-        <v>1.041452924960361</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="I21">
-        <v>1.024003622592169</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="J21">
-        <v>0.8585719803706373</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="K21">
-        <v>1.024003622592169</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L21">
-        <v>1.041452924960361</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M21">
-        <v>0.9500124526654989</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="N21">
-        <v>0.9500124526654989</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="O21">
-        <v>0.9396033915414875</v>
+        <v>0.9826911708771932</v>
       </c>
       <c r="P21">
-        <v>0.974676175974389</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="Q21">
-        <v>0.974676175974389</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="R21">
-        <v>0.9870080376288342</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S21">
-        <v>0.9870080376288342</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T21">
-        <v>0.9986594163053025</v>
+        <v>1.002400018684211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.020170741794812</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="D22">
-        <v>0.9785906152089123</v>
+        <v>0.9699431852631578</v>
       </c>
       <c r="E22">
-        <v>1.015334925193843</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="F22">
-        <v>1.009863379150939</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="G22">
-        <v>0.9591919345468267</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="H22">
-        <v>1.00761171154043</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="I22">
-        <v>1.015334925193843</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="J22">
-        <v>0.9591919345468267</v>
+        <v>0.9580039736842109</v>
       </c>
       <c r="K22">
-        <v>1.015334925193843</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L22">
-        <v>1.00761171154043</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M22">
-        <v>0.9834018230436282</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="N22">
-        <v>0.9834018230436282</v>
+        <v>0.9890651636842107</v>
       </c>
       <c r="O22">
-        <v>0.981798087098723</v>
+        <v>0.9826911708771932</v>
       </c>
       <c r="P22">
-        <v>0.9940461904270332</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="Q22">
-        <v>0.9940461904270332</v>
+        <v>0.9906089171929825</v>
       </c>
       <c r="R22">
-        <v>0.9993683741187358</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S22">
-        <v>0.9993683741187358</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T22">
-        <v>0.9984605512392939</v>
+        <v>1.002400018684211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.005576267777883</v>
+        <v>1.112777036505603</v>
       </c>
       <c r="D23">
-        <v>0.9641860394047039</v>
+        <v>0.9187852692934646</v>
       </c>
       <c r="E23">
-        <v>1.04932377377107</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="F23">
-        <v>1.017965533339757</v>
+        <v>1.036365664109581</v>
       </c>
       <c r="G23">
-        <v>0.9167794763808607</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="H23">
-        <v>1.005060901835656</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="I23">
-        <v>1.04932377377107</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="J23">
-        <v>0.9167794763808607</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="K23">
-        <v>1.04932377377107</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="L23">
-        <v>1.005060901835656</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="M23">
-        <v>0.9609201891082582</v>
+        <v>0.9500124526654989</v>
       </c>
       <c r="N23">
-        <v>0.9609201891082582</v>
+        <v>0.9500124526654989</v>
       </c>
       <c r="O23">
-        <v>0.9620088058737402</v>
+        <v>0.9396033915414875</v>
       </c>
       <c r="P23">
-        <v>0.9903880506625288</v>
+        <v>0.974676175974389</v>
       </c>
       <c r="Q23">
-        <v>0.9903880506625288</v>
+        <v>0.974676175974389</v>
       </c>
       <c r="R23">
-        <v>1.005121981439664</v>
+        <v>0.9870080376288342</v>
       </c>
       <c r="S23">
-        <v>1.005121981439664</v>
+        <v>0.9870080376288342</v>
       </c>
       <c r="T23">
-        <v>0.9931486654183216</v>
+        <v>0.9986594163053025</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.026029837573964</v>
+        <v>1.020170741794812</v>
       </c>
       <c r="D24">
-        <v>0.9916196386969702</v>
+        <v>0.9785906152089123</v>
       </c>
       <c r="E24">
-        <v>0.9897720585145819</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="F24">
-        <v>1.003141381619977</v>
+        <v>1.009863379150939</v>
       </c>
       <c r="G24">
-        <v>0.9920795375638961</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="H24">
-        <v>1.008643148041779</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="I24">
-        <v>0.9897720585145819</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="J24">
-        <v>0.9920795375638961</v>
+        <v>0.9591919345468267</v>
       </c>
       <c r="K24">
-        <v>0.9897720585145819</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="L24">
-        <v>1.008643148041779</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="M24">
-        <v>1.000361342802837</v>
+        <v>0.9834018230436282</v>
       </c>
       <c r="N24">
-        <v>1.000361342802837</v>
+        <v>0.9834018230436282</v>
       </c>
       <c r="O24">
-        <v>0.997447441434215</v>
+        <v>0.981798087098723</v>
       </c>
       <c r="P24">
-        <v>0.9968315813734189</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="Q24">
-        <v>0.9968315813734189</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="R24">
-        <v>0.9950667006587096</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="S24">
-        <v>0.9950667006587096</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="T24">
-        <v>1.001880933668528</v>
+        <v>0.9984605512392939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.112777036505602</v>
+        <v>1.005576267777883</v>
       </c>
       <c r="D25">
-        <v>0.9187852692934645</v>
+        <v>0.9641860394047039</v>
       </c>
       <c r="E25">
-        <v>1.024003622592169</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="F25">
-        <v>1.036365664109581</v>
+        <v>1.017965533339757</v>
       </c>
       <c r="G25">
-        <v>0.8585719803706373</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="H25">
-        <v>1.041452924960361</v>
+        <v>1.005060901835656</v>
       </c>
       <c r="I25">
-        <v>1.024003622592169</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="J25">
-        <v>0.8585719803706373</v>
+        <v>0.9167794763808607</v>
       </c>
       <c r="K25">
-        <v>1.024003622592169</v>
+        <v>1.04932377377107</v>
       </c>
       <c r="L25">
-        <v>1.041452924960361</v>
+        <v>1.005060901835656</v>
       </c>
       <c r="M25">
-        <v>0.9500124526654989</v>
+        <v>0.9609201891082582</v>
       </c>
       <c r="N25">
-        <v>0.9500124526654989</v>
+        <v>0.9609201891082582</v>
       </c>
       <c r="O25">
-        <v>0.9396033915414875</v>
+        <v>0.9620088058737402</v>
       </c>
       <c r="P25">
-        <v>0.974676175974389</v>
+        <v>0.9903880506625288</v>
       </c>
       <c r="Q25">
-        <v>0.974676175974389</v>
+        <v>0.9903880506625288</v>
       </c>
       <c r="R25">
-        <v>0.9870080376288342</v>
+        <v>1.005121981439664</v>
       </c>
       <c r="S25">
-        <v>0.9870080376288342</v>
+        <v>1.005121981439664</v>
       </c>
       <c r="T25">
-        <v>0.9986594163053025</v>
+        <v>0.9931486654183216</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.020170741794812</v>
+        <v>1.026029837573964</v>
       </c>
       <c r="D26">
-        <v>0.9785906152089123</v>
+        <v>0.9916196386969702</v>
       </c>
       <c r="E26">
-        <v>1.015334925193843</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="F26">
-        <v>1.009863379150939</v>
+        <v>1.003141381619977</v>
       </c>
       <c r="G26">
-        <v>0.9591919345468269</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="H26">
-        <v>1.00761171154043</v>
+        <v>1.008643148041779</v>
       </c>
       <c r="I26">
-        <v>1.015334925193843</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="J26">
-        <v>0.9591919345468269</v>
+        <v>0.9920795375638961</v>
       </c>
       <c r="K26">
-        <v>1.015334925193843</v>
+        <v>0.9897720585145819</v>
       </c>
       <c r="L26">
-        <v>1.00761171154043</v>
+        <v>1.008643148041779</v>
       </c>
       <c r="M26">
-        <v>0.9834018230436283</v>
+        <v>1.000361342802837</v>
       </c>
       <c r="N26">
-        <v>0.9834018230436283</v>
+        <v>1.000361342802837</v>
       </c>
       <c r="O26">
-        <v>0.981798087098723</v>
+        <v>0.997447441434215</v>
       </c>
       <c r="P26">
-        <v>0.9940461904270332</v>
+        <v>0.9968315813734189</v>
       </c>
       <c r="Q26">
-        <v>0.9940461904270332</v>
+        <v>0.9968315813734189</v>
       </c>
       <c r="R26">
-        <v>0.9993683741187358</v>
+        <v>0.9950667006587096</v>
       </c>
       <c r="S26">
-        <v>0.9993683741187358</v>
+        <v>0.9950667006587096</v>
       </c>
       <c r="T26">
-        <v>0.9984605512392939</v>
+        <v>1.001880933668528</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9667003961420099</v>
+        <v>1.112777036505602</v>
       </c>
       <c r="D27">
-        <v>1.026461315666667</v>
+        <v>0.9187852692934645</v>
       </c>
       <c r="E27">
-        <v>0.9887836101902426</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="F27">
-        <v>0.9880853578000061</v>
+        <v>1.036365664109581</v>
       </c>
       <c r="G27">
-        <v>1.04711333764874</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="H27">
-        <v>0.9877979911755793</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="I27">
-        <v>0.9887836101902426</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="J27">
-        <v>1.04711333764874</v>
+        <v>0.8585719803706373</v>
       </c>
       <c r="K27">
-        <v>0.9887836101902426</v>
+        <v>1.024003622592169</v>
       </c>
       <c r="L27">
-        <v>0.9877979911755793</v>
+        <v>1.041452924960361</v>
       </c>
       <c r="M27">
-        <v>1.01745566441216</v>
+        <v>0.9500124526654989</v>
       </c>
       <c r="N27">
-        <v>1.01745566441216</v>
+        <v>0.9500124526654989</v>
       </c>
       <c r="O27">
-        <v>1.020457548163662</v>
+        <v>0.9396033915414875</v>
       </c>
       <c r="P27">
-        <v>1.007898313004854</v>
+        <v>0.974676175974389</v>
       </c>
       <c r="Q27">
-        <v>1.007898313004854</v>
+        <v>0.974676175974389</v>
       </c>
       <c r="R27">
-        <v>1.003119637301201</v>
+        <v>0.9870080376288342</v>
       </c>
       <c r="S27">
-        <v>1.003119637301201</v>
+        <v>0.9870080376288342</v>
       </c>
       <c r="T27">
-        <v>1.000823668103874</v>
+        <v>0.9986594163053025</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.032049873525327</v>
+        <v>1.020170741794812</v>
       </c>
       <c r="D28">
-        <v>0.9782004400740404</v>
+        <v>0.9785906152089123</v>
       </c>
       <c r="E28">
-        <v>1.005109173877793</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="F28">
-        <v>1.0096322236405</v>
+        <v>1.009863379150939</v>
       </c>
       <c r="G28">
-        <v>0.9632384802184352</v>
+        <v>0.9591919345468269</v>
       </c>
       <c r="H28">
-        <v>1.011493539236611</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="I28">
-        <v>1.005109173877793</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="J28">
-        <v>0.9632384802184352</v>
+        <v>0.9591919345468269</v>
       </c>
       <c r="K28">
-        <v>1.005109173877793</v>
+        <v>1.015334925193843</v>
       </c>
       <c r="L28">
-        <v>1.011493539236611</v>
+        <v>1.00761171154043</v>
       </c>
       <c r="M28">
-        <v>0.987366009727523</v>
+        <v>0.9834018230436283</v>
       </c>
       <c r="N28">
-        <v>0.987366009727523</v>
+        <v>0.9834018230436283</v>
       </c>
       <c r="O28">
-        <v>0.9843108198430288</v>
+        <v>0.981798087098723</v>
       </c>
       <c r="P28">
-        <v>0.9932803977776129</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="Q28">
-        <v>0.9932803977776129</v>
+        <v>0.9940461904270332</v>
       </c>
       <c r="R28">
-        <v>0.9962375918026578</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="S28">
-        <v>0.9962375918026578</v>
+        <v>0.9993683741187358</v>
       </c>
       <c r="T28">
-        <v>0.9999539550954509</v>
+        <v>0.9984605512392939</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9667003961420099</v>
+      </c>
+      <c r="D29">
+        <v>1.026461315666667</v>
+      </c>
+      <c r="E29">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="F29">
+        <v>0.9880853578000061</v>
+      </c>
+      <c r="G29">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="H29">
+        <v>0.9877979911755793</v>
+      </c>
+      <c r="I29">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="J29">
+        <v>1.04711333764874</v>
+      </c>
+      <c r="K29">
+        <v>0.9887836101902426</v>
+      </c>
+      <c r="L29">
+        <v>0.9877979911755793</v>
+      </c>
+      <c r="M29">
+        <v>1.01745566441216</v>
+      </c>
+      <c r="N29">
+        <v>1.01745566441216</v>
+      </c>
+      <c r="O29">
+        <v>1.020457548163662</v>
+      </c>
+      <c r="P29">
+        <v>1.007898313004854</v>
+      </c>
+      <c r="Q29">
+        <v>1.007898313004854</v>
+      </c>
+      <c r="R29">
+        <v>1.003119637301201</v>
+      </c>
+      <c r="S29">
+        <v>1.003119637301201</v>
+      </c>
+      <c r="T29">
+        <v>1.000823668103874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.032049873525327</v>
+      </c>
+      <c r="D30">
+        <v>0.9782004400740404</v>
+      </c>
+      <c r="E30">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="F30">
+        <v>1.0096322236405</v>
+      </c>
+      <c r="G30">
+        <v>0.9632384802184352</v>
+      </c>
+      <c r="H30">
+        <v>1.011493539236611</v>
+      </c>
+      <c r="I30">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="J30">
+        <v>0.9632384802184352</v>
+      </c>
+      <c r="K30">
+        <v>1.005109173877793</v>
+      </c>
+      <c r="L30">
+        <v>1.011493539236611</v>
+      </c>
+      <c r="M30">
+        <v>0.987366009727523</v>
+      </c>
+      <c r="N30">
+        <v>0.987366009727523</v>
+      </c>
+      <c r="O30">
+        <v>0.9843108198430288</v>
+      </c>
+      <c r="P30">
+        <v>0.9932803977776129</v>
+      </c>
+      <c r="Q30">
+        <v>0.9932803977776129</v>
+      </c>
+      <c r="R30">
+        <v>0.9962375918026578</v>
+      </c>
+      <c r="S30">
+        <v>0.9962375918026578</v>
+      </c>
+      <c r="T30">
+        <v>0.9999539550954509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.132898439554143</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8978294678823867</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.038263860601204</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.046098324375124</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8181412996605194</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.049322333363729</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.038263860601204</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8181412996605194</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.038263860601204</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.049322333363729</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9337318165121242</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9337318165121242</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9217643669688784</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9685758312084841</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9685758312084841</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.985997838556664</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.985997838556664</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9970922875728511</v>
       </c>
     </row>
